--- a/2025-02-06/Ice Hockey_2025-02-06.xlsx
+++ b/2025-02-06/Ice Hockey_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,28 +478,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ice Hockey</t>
+          <t>Hockey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
+          <t>O-Pee-Chee</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chris Pronger</t>
+          <t>Phil Housley</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$160.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285538250382?_skw=PSA+10&amp;epid=27056474212&amp;hash=item427b67ee8e:g:rowAAOSwwpJlQAP-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm%2FKwta2ghhP7VcR7YozG6t5w88w1IFaJPiMEtk6BHIELE%2B3oz2L77v3%2B%2BkVIJzMgE0fSclCSjrOfRvXS3H8Ccp6CfFqOFRpKslccW57CDwu2sQ4cGp4KxCcLEIafhiAh7mOzXhlKoqnTOTpNCBd6R%2BUMedscjCHMjB9xYoAHmT9AiIXnrtwfuW1HqVXefE63ehL%2BVLD0nKXy2grcZa%2FAXswe%2BdgyjnVx7xo2%2Fh3h9GRHwIGsfi6ZXsCqlWtKlzzrjs%2BJYSXQfhg8WhtMdhiTz3%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/135536941001?_skw=PSA+10&amp;epid=3056566342&amp;hash=item1f8ea197c9:g:p7oAAOSwvaBnpOel&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnbFFsUsh2nsrrKVe%2BrPrNnstt637Gf1mPmNQxJOFiwqbcEygkwnl%2FL%2BvdIM6CDV%2FMXRSYdqrPO0GEaE6tFPXbJ9fP9hi1G%2BDZVxmoZHTLv6iiVgoElZsenk7pG%2Fpyxyp9rDnnjbFz1CtlNT8qk4BpZI9BUTYhuJW%2B8GKqyrOfC5sPv%2Fr%2BW9dIfXj1iLealfx75eARkbNpSl8hbaIPFR8AyMqNO8RRewyJaFNjili306w%3D%3D%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -521,27 +521,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>1992-93</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O-Pee-Chee</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Glossy</t>
-        </is>
-      </c>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jack Eichel</t>
+          <t>Chris Pronger</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$160.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,7 +547,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/325684195147?_skw=PSA+10&amp;epid=17062494991&amp;hash=item4bd44a6f4b:g:8w8AAOSwyeRkf69J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6DGj0ngABAy7jmlqAGnS7UkWbX2K4cThGPq0O6ScKqzKPWTa68wtPakYzuL20xxysw0XHorA65lE%2FHUx2C0un47MhSTjkJuQJJFO9BxKBQ4TrKomb%2Frwtnx1vgqIemGIAKDJxCyX00U8yfWC8XcTQbNS5lycAyqNzy2i2LCFuBwIGh1Q0VeVSQtgQrtLIqp8Hf7vUp9ZzFtI4WHo%2FmKy0L%2BVK1TcxU2TPbu%2FshffRAFHGeG1weI09ppA0gOe7bBrFKMrLQp15QpL34p155DIO%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/285538250382?_skw=PSA+10&amp;epid=27056474212&amp;hash=item427b67ee8e:g:rowAAOSwwpJlQAP-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmWYkRHqTjQ%2FlYbn8Csq%2FyMqzjb5D9oRvnq89ixx5kpWchzqBpkfOZCX%2F4cfxUFPfGIoZ4Jeakw5Qry39hunS%2Be4jerAm4Q78PnIMaCgpoOZeTknOfm%2BoG4EJRC7EtFXk014yU39PSe65C%2FWQPtXBtzS%2BHn%2FAYJ0WCUFCxjA6%2BpEVp14rjTJBVfOMzx5wqDZtMUufeln1FjdbacEG2TXFtLAkTApn65ZV%2BXeKHopE7yFw%3D%3D%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -563,27 +559,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
+          <t>O-Pee-Chee</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Glossy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Connor Bedard</t>
+          <t>Jack Eichel</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -593,7 +589,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286304110537?_skw=PSA+10&amp;epid=20068973679&amp;hash=item42a90e07c9:g:UwsAAOSwxaJnpDoQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEj750JeEsE7fF5%2BPjR9OC29D2QTqToOozRb2CYuuzvOKLKBkZedCkTyaQvY4Mldk%2FIrTL0jfV9Xs30idUXEUy%2Fzfs1PgnLqMK5ToK3neVzdijNi%2Bh%2BS%2F58ezGvr6Rbz%2FJRuoIZ7LL1kgU9dtsCon6HNPhdfLSDoie7qgZtrmObNnhuC0FsvqIhFKHrKbzjQTTsVuBsilW0geFX7zthFlMV5UioHyBni1xRUczSMNO66IY0DBTV9w9ahQ%2FcA%2Fiycn7IFy56N%2FLcASxg9qg%2Bcbp%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/325684195147?_skw=PSA+10&amp;epid=17062494991&amp;hash=item4bd44a6f4b:g:8w8AAOSwyeRkf69J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6DGj0ngABAy7jmlqAGnS7UkWbX2K4cThGPq0O6ScKqzKPWTa68wtPakYzuL20xxysw0XHorA65lE%2FHUx2C0un47MhSTjkJuQJJFO9BxKBQ4TrKomb%2Frwtnx1vgqIemGKjXFopOP2pd54I%2BO4NLFl8Y%2BEZSGRpArsV8p5hTeDFTgbOwjvlC1DX02dH9C7aUf0xvxfL00DdD8NDs5xkeQhWe3YMRvmEzp%2FusKDVMy8B%2ByRj10NL9tWllGfry%2FO0OJkV4xon0XlNhSFaRH4uYEjr%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -603,13 +599,29 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Upper Deck Series 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pavel Mintyukov</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$4,997.20</t>
+          <t>$636.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -619,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205257371166?_skw=PSA+10&amp;hash=item2fca4aee1e:g:jUIAAOSw32pnnFN2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCsj1XGCW0gohAhDTyVMqRlFBJn8BMrQELsIxMvPP7ZFctlG0kKuKnznMvpKUP7MUsCmIR14G9cxcNzRpDAbjkVcFpXgt%2B2WFZQ2l4LCg3kN%2FDMBupNAMrcL3mWuTg7eJhS5SKJ0jyBAvRUX3gZ%2FMNU2bTNUwGnNgoNT3TgPod%2Fmf6Jg2Ddy6xVPhZQH53H3q4jfEUL5N3IcAM8t6dKYbrQDPz6fvaR5LClfnvHb0uCQ%3D%3D%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/296976588245?_skw=PSA+10&amp;hash=item45252f1dd5:g:mkUAAOSwSR1nnFuP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlnEuREqw5J7GaKs9Pxm1GF1WOxlpFvvCuFWy4pNZuV6XVVc5m3kT9YD03Nt0xhbWxhtr8fmSOZq7fHyF%2FMdURxMov3liCrLTEG2H6Jh9h%2Bs6pPMLBUz%2FswFQJz7YBGl1u0vz2y7%2Fp6F%2FPmGWiTwaV8IbdgK7N1U3VRcqZ6bkCxhlHa6u8pRa3gwEAPGPiZD9zX4TXSQ5DDRgPKW%2FRq30G%2FYANEMIMRvEdtsMbzbbk9oA%3D%3D%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -631,27 +643,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O-Pee-Chee</t>
+          <t>Upper Deck</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OPC</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wayne Gretzky</t>
+          <t>Connor Bedard</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$775.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -661,7 +673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/355846603158?_skw=PSA+10&amp;epid=5056583085&amp;hash=item52da1c4196:g:eBoAAOSw2l9miNNv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkxQ0jOc6F589zpqD1cjXYU61GfhzDxfbsA8KqNr0buCXUzmZ860itVuJx%2FWNHJGIP%2BAbnv8qm6bELaxSm1EfEa1hI95emQ7DUqdo8p3QEn8%2FDa15AIzF3U%2F0bAG7x5S0bzefB1ftoVJ5iUV3svvCO2KPZlIzB8suxOg2euSfZWSqFEn6Tk2TgwFIOPpvkCb5C9K%2BouDhjaOUVphkT%2F2KX19QJB7w1STjm2W3y7lpfDdw%3D%3D%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/286304110537?_skw=PSA+10&amp;epid=20068973679&amp;hash=item42a90e07c9:g:UwsAAOSwxaJnpDoQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEj750JeEsE7fF5%2BPjR9OC29D2QTqToOozRb2CYuuzvOKLKBkZedCkTyaQvY4Mldk%2FIrTL0jfV9Xs30idUXEUy%2Fzfs1PgnLqMK5ToK3neVzdijNi%2Bh%2BS%2F58ezGvr6Rbz%2F%2Bbc3elmrEpxzfFT7XuUe8XB2HNEzcIQWObal0uyyTCvVPHn0smMJHlanRaF60nfbR7bx5NXv264wK%2FUfz3fFQ4o7Z0RzsGfd5N6gkhdI4agfxPAPe1zG6W8E%2Fk0QKLO4q72GCLy5R%2Bvs0w39Mt4dN%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -671,25 +683,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Topps</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>mike byers</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$195.00</t>
+          <t>$517.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -699,35 +699,35 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/315999386856?_skw=PSA+10&amp;epid=28056486869&amp;hash=item499307fce8:g:rdkAAOSwXXRmf2XR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQgz%2F7iuxRig5blfIaRYPJFHcZM3aPQqa8WKdbWfCrjQK5cR3pOH196%2FrA0zQWcPooZ8M4wk7OCsmqAj%2BhBFcRFWehEQv%2FG832IE29fYHSTszQV8Lp%2F7KWWdjHsymWxR5vAhCfvWMzVjwIHfjE76pVV7PdrfZkbb2Lhe6hnRR5SX4xQcsGyn7wpvSo39KClQbOnT4lRtq9htXI5yafzOOl6A9tbwqx1v3QtZG6YXHukg%3D%3D%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256166685?_skw=PSA+10&amp;hash=item2fca388d1d:g:954AAeSw5Ihnm33X&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKltD%2FEaR5i%2BJQzbtdxIB5x4DiXuCFYHMKAHI5bd80EdXkAiR7OJoDLczhJltj2zqfOkCjORIblp2Bj9fGNLDWqSmr57xNJoSpaOcye0VE%2BmLfipAwL0h5IVDJ6KNOEAIRpKgre9CNqxP%2BmhRZlNzg7Nd%2Fll7BU7i16EqQzQS07MGZBJSDhkfrEYsvj6Oeygh3X8E5E7xUu0QS75I6iqY2ud61kdjWCH97nlyIauwySUpA%3D%3D%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ice Hockey</t>
+          <t>Hockey</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
+          <t>O-PEE-CHEE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cale Makar</t>
+          <t>RICK CHARTRAW</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$405.00</t>
+          <t>$213.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -737,39 +737,39 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146360545922?_skw=PSA+10&amp;epid=9056537764&amp;hash=item2213c4b282:g:4V4AAOSwA-5nm8m5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkq5A7I4NVMjzTmT9ZkuX6YUNm7tHxSGyuLLsE7bpqxr2R%2F56PB7PVt%2FPn33TLwec7mTsR%2F07PtmbKxLpDPlhymzTw8b9M1GPB47ul5y6VjLyX%2BagqhNo7H3%2FwFUxkd2%2FnLYUPx0gZjdOEH2b6LfIJpYtSx6A4nlGI%2BgBrqdN9S9UeYlRTaYFfqLmAR%2BISJ8ie8jRZCya6hY64TgmmEHnUDDvmak29YaQaqHIlXBIzUuXxz0J81CXJkZFWwSrBied6BEXfS9FaA3lYjLOfnrlaY%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/306095952979?_skw=PSA+10&amp;epid=10056491628&amp;hash=item4744bd9453:g:S9UAAeSwyvZnpXLP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2BhWbpuyg3D6oJs3M5fLARiie7DpzyIHDjTp%2FiJJA3k8S5UQ7q7v6%2BnVZYCbSqtOp6xG9TMUCjS0tCCq4POUQ92SgQQIU7uk6Wm5paNAhht44%2BFr%2Fo6UXKMnxmm52lGSGkuc062iOzFPB4dVnbq2xs12%2FX1LEypHmskhCh1A3MJZE2Tz1g%2FAd8y%2BnO1IiZuXQI5ALrHISQMZZ%2BDvqQqcX9riAGYkJ3UCDlpfocaxeSQw%3D%3D%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Ice Hockey</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>1983-84</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>O-Pee-Chee</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>OPC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Wayne Gretzky</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$174.10</t>
+          <t>$775.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcBUVIF0u%2BsE7aby%2BajM3vzREMhIq4GfltKquhSGElnjrx1PyI8d9zrtwgPBt2iOW7SeJGzjKQD8p9Q%2FPO1%2BTJCOH6LTy4jOMxhAQo9Iy0ctjUEwJW6nulhNDdyFmgfTZPP7FDAeTvKV47rmMbfGEJggQKtJgfN%2BSWKYqACP9oQlbVNz4NO05d9ljg1Y6mLQXUxspS37L345QlBideSldqBKyPGkTquE7zSWvV80uuZQ%3D%3D%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/355846603158?_skw=PSA+10&amp;epid=5056583085&amp;hash=item52da1c4196:g:eBoAAOSw2l9miNNv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkxQ0jOc6F589zpqD1cjXYU61GfhzDxfbsA8KqNr0buCQQbDC4HLZ25F%2FgDFy3WFSLQVRwAHFuYerXhOd45KAzKsQnXsKTwCb2mLZDBnDyDBEdjr7IuXcOs4hltGWGstG12ND%2FO489QctS3o3WRTbpMP0mc9J5JamguGL4093XNPgUO%2BG12AX54Ox4WMtVt2asRaq0adeDQGuSV03L3U9H%2BIcqdEgchBvI2U0tVY9QBbQ%3D%3D%7Ctkp%3ABk9SR5bYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -789,13 +789,25 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Topps</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>mike byers</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$737.35</t>
+          <t>$195.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -805,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205256167946?_skw=PSA+10&amp;hash=item2fca38920a:g:79AAAeSwakNnm34d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnKVxo3X%2FAEsRNNh40RC5947jpSahTm78jr3A%2FE8E%2F6N03nb0TPGVVj%2BM%2Fgocwcl0n1bXuZaF65Ffjrh9ZPcbRsWqYhyBsMur9Jqmh3Tb2pWz3GyFvXbAcnycF7p7a7nf6jR5dvil6TKz%2BeUZHpL9sXtQuIHpTtUCNlnKRnBWNiTarYMES7FaiacATf5L3h4QuRTvo3e6npyRVgUSDWWuSs55%2FEHSLxnk0dqB1ca0T6xw%3D%3D%7Ctkp%3ABk9SR7rpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/315999386856?_skw=PSA+10&amp;epid=28056486869&amp;hash=item499307fce8:g:rdkAAOSwXXRmf2XR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQgz%2F7iuxRig5blfIaRYPJFHcZM3aPQqa8WKdbWfCrjbBcDbQY6h0RJ%2BHfDO1DhTrzNEJwGHQ2DAhmZhDG%2BKPwKjr7arkVGW6yqQAJrSh4C7FJmwlZXD%2BlBnB%2FadzWbh%2BiFx2TGDuO9nSE8gFSCycSqbvaw8nBNtyoUwAJXFLEPxWOqLN55QF6i45q1U4YeVfUnMzroWeyCjLAIdXNT%2Bkz68xXJ%2F8BKGRyKPHUq5VdQA%3D%3D%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -821,7 +833,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$751.33</t>
+          <t>$279.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -831,7 +843,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205256167831?_skw=PSA+10&amp;hash=item2fca389197:g:ANgAAeSwlW9nm35J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlE4gmpS6onWjvtz%2Fs%2FKbN4eDNhiiN8fow9LOsDAx7TQnCupqmSGy65V5ExrHdrqb5BjLry4pqjO2zoNKnHA5OUDL1gvN2V9V%2Bf6EVIVtRa5UuhVrM0IL4NFmpp0Z6YTZOcDnNA2DsefDXRkhRP0mKebdIdRrsMoVlbnsb2u%2FiPA1dUJkuFDxOJM%2FYO6C1%2B%2BKKhoEaDKWPHakTpKTSJ3VRdrSywPnOVJo7auVrM%2Fsar0qoA8UU5ohN3t2%2BpbKjmP2wnkekACnKZBN5jY6TE0SeN%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256916947?_skw=PSA+10&amp;hash=item2fca43ffd3:g:Up0AAOSwOh9nm~n5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlUJicHJocP0Mr2TutIvQmQHv10IUwdkkNpsJT%2FW67eojhkw7kY6pSkzYraKc3DOv98wzBuD9pOAp7Eozd7fvdZEtVOkWMmXFXunEiUd5JjQtX1xggFrDbt3mc%2BfBRw5nn3jopz3N0%2FMp70VHbEHCUcKK9vNQjhkxc8d3crXzDTb0mIUjM8RynhU9LPnRsVqJHGiJgoMw54unrEzZWYQg%2B2QiYtd%2B6IXv5mwrhNmzLChRnvAbZvnNeT3s3XW8LNYGT1ZyRmDQVUn8ocQBU5WVA3%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -841,25 +853,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Upper Deck Artifacts</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Connor Bedard</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$718.86</t>
+          <t>$196.39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306059634947?_skw=PSA+10&amp;epid=6074618289&amp;hash=item4742936903:g:PYkAAOSwU0Jnkl9l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm%2BA%2FYvNWl9j5d4KNVC9IW%2FrdmjymTNSsDMTH75lsLRrUlw145eyX8FOg1MzhYQOVFLSq9aAaLqkAzhF2Iikw9i406JcXms5RnyrEfGhlqChgG0QsV9MiAplDU7dV0zyMOvvWVqSjfXVnh2RrhLvfu2UM2J4ZEYNGP%2FUGQ9URMp4PParFdHPFIX4xpKF%2FreA2mPdgAp2so0PEGIg2gM3jIVfLvBfxAgbjlRNJka7DuO9U2liJ4eAUxCBSvbq7FsPjNQa52R1xnLFqhYTJWVYMth%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256168972?_skw=PSA+10&amp;hash=item2fca38960c:g:-CQAAeSwWGtnm35B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmJ6HwxAgEg5l8XT8UhAGj3qu0FY%2BHDYEIB9Ocf0%2FaWLxgAHlvWo7VXEEImkec59ejBo7S0M5gkHaLLhNvHGH4Lv%2BxTrKhBBhI5KPS4gG5ST%2Bxc%2Br79y0y7OvsEN8aepYGvePiFImJtSVzyyN8osg8JWki%2FdPOJ5Y2NAnM3aD514X%2Fk6MNiHh1SGLAbaRcWuoMSs1LoXLSBgKZf8PbjiOzmhFbP5JRcsQ8paKG8XV9iBA%3D%3D%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -879,25 +879,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2013-14</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Panini Rookie Anthology</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Nathan MacKinnon</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$419.35</t>
+          <t>$178.22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -907,7 +895,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116469970237?_skw=PSA+10&amp;hash=item1b1e26b53d:g:LGEAAOSwcatmsYQn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvZhA4wFL3EXgAMURyst6hjnUuWw3Yo6DizMRqaiqqhvjsxdwgS1Gcg27bZDpXvdiqgQEeslqS0yrcIrFjqBFexTAgZN1oFregujH%2BicLXQN3I6XAK%2Bdkh4mxg%2FDmt0ajEH9BWMyWpD1cQqZ5hLI%2FzDSMgnQlzRbXV1HHtz%2BE02Y%2FJKIpDR1uJcbnGi4v5so2rJOZTJ6l3x5CY%2FBpxoMhigupW6DodTCWp%2FV0pilr81rz9lFjdFDpXupFzrFuceXwteGaCUOc1QHN9hIqyCNv9%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256170135?_skw=PSA+10&amp;hash=item2fca389a97:g:~QQAAeSwY3lnm34y&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnRr8G3Gs6B%2B4QXC%2BKQw0ZrF2pdYH95D3h3qmZ2A%2BaEUCVM8txLxWgqxN35%2B9viIDaR8I%2BWzXkaZFvQdVS%2FTao0gsqRnmyhYGRTmwpBndW1TFVDz0wbx%2FIbQqsaTgIuUdSfynklICWdakhPuRQk9vpHM0L6sqCOTf8qRRluBGCAa9VB8JrQTRtFhqLzH7v%2F20cC8BPhc435o901DScMLgWAPeW9F9SVJWS8cVz5%2FJXAVw%3D%3D%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -917,29 +905,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1992-93</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>O-Pee-Chee</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>HOF Player</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Wayne Gretzky</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$189.00</t>
+          <t>$915.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -949,7 +921,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335751551463?_skw=PSA+10&amp;epid=17056540575&amp;hash=item4e2c5a19e7:g:A6gAAOSwiupnczZy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlO7M5VG%2FERmqp934GpSsM0q5dHU7oWxKoGw03J1bvYdyc8QTmvoEp5XWnU9%2Fu1ITpxnIL%2FZCLv8oCBjD48wJJJZ5vNRYHIDcAQw94KPhACKlxSswRrxLrqQzxTrrFw3MPDVIGWHDcfjLBmAQ6cjWJF1XyoW5%2FWG92fbcnoy5Eb0USkKYQ5KJPOljMEoE9OCVjtJtUxkTYkZvoFOsp04o4OyZscJuYQta904l0iAiwQm8LUuf%2BzQEEEZ%2Bnal7sNYWixVXdOu61MVI7ZeidxSbP9%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256916897?_skw=PSA+10&amp;hash=item2fca43ffa1:g:troAAOSwr8Znm~n1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm4OeI65O6l%2BkJ%2BurZagN8uT8IWZJBg4yoYD1Qmenek5m9LwRqBdjPiB1sdN1XmYoRCseV4AXB0uhk2gJ%2FWdSsn5SMlUaJIMD9Dge8sXr9rG5WRge%2BgZ3Pbsp542Q11BqSz1tkuG0V3lQ9V%2FPdrTc8sos%2F0D6hdevOlZ9PsaR2%2FT7FccS1YekypnRmDaY0Gp0Ppc1gEiGBYhakXllKUdkFdKuqehcmRr5yHnlxwaD6U6Q%3D%3D%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -961,23 +933,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O-Pee-Chee</t>
+          <t>Upper Deck</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wayne Gretzky</t>
+          <t>Cale Makar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$174.50</t>
+          <t>$405.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -987,23 +959,39 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365371451505?_skw=PSA+10&amp;epid=16056476944&amp;hash=item5511d5e871:g:nnYAAOSwauBnnAAM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnn%2BzIv%2BEdTbrn8gHqLg2qgHnajiwTmDqJXKhn%2BWmp8ImJvKMY7G%2FfJ4yXfMYY6NCyB5Yjrio1wjljICLZoSLGpoyZsGRQ1nLg8T6FaEnA8n0THLJdUESgs8RQZhsxxYMzwyGKLRFHNGiCtXqlqDMCEJjre1OXxYW79Uh1M4Gw3%2B8HxoEiqksNwO4M9TyfvsbKC0Xfvk85Oj%2F89TDDglDtvLeLDRBM9zpKr3tBrd%2Fp%2BjIes3sSby%2FDooChQ1CBbnpkUTwq2D4YglLeWJfSOYcAd%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/146360545922?_skw=PSA+10&amp;epid=9056537764&amp;hash=item2213c4b282:g:4V4AAOSwA-5nm8m5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkq5A7I4NVMjzTmT9ZkuX6YUNm7tHxSGyuLLsE7bpqxr2R%2F56PB7PVt%2FPn33TLwec7mTsR%2F07PtmbKxLpDPlhymzTw8b9M1GPB47ul5y6VjLyX%2BagqhNo7H3%2FwFUxkd2%2FnzEil6TJf0Vzeuy3dMkUm2396XPOa0beUuxpDX434MEQBjU91%2BDDLQSEAOWC02FKJTW87lB04yFDupEuEWF7ra290AYpietAsPYkurqbT5O1KODrYOUdrSh8v1CSGYAb3nU5y%2BpXDq5beZa63wq%2B8K%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ice Hockey</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Panini Select</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Silver Prizm</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Shai Gilgeous-Alexander</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$5,505.31</t>
+          <t>$174.10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1013,7 +1001,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205256170690?_skw=PSA+10&amp;hash=item2fca389cc2:g:AsEAAeSw7rBnm34J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlANe%2BCyd7pSmoP%2BGuYKrUiJTkghgBrq7G28HhELlfRJB%2FJ7dvIt%2FZzwzOc0yKvgqZa8c2kN8YKtbGYgnMtKt7WBBNcQxhv6qrXei7GjQ5tI84f7WwbjwS4jyQOHToJ7FPU%2BBLnu2olP4dEgTZ4ImTVzfkPk4uWx4ucvo5Pu%2BJrMi9B4XtRx3nrf7883zuuQc8SHtHpDo5YL6XAdFEKJvqVy0JXfPP6bGUkkeMEEXgooA%2BbAVgad02OOZ4ROUVoNWt58f5BJrWUePtIJOW8Eoym%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcBUVIF0u%2BsE7aby%2BajM3vzREMhIq4GfltKquhSGElngxgxqC%2Bg6AJDWi3rsn%2BRYszrRdVHY%2Brv3IJVsOPPNgw20ayPinCvhfEDqG3cjuf5CRnqDVUmxVhCiproIdZrA5RmPeIxn6KdGY5Ntsf%2FrSqkfBXFMqz9bLmyMbIK0u7lxUtM6dK76szRMpYMmb9rqkZ9ooWbmFmSn3uUHT4qjZck8m5VM9%2BKDt0PMVHp36aDg%3D%3D%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1023,25 +1011,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1990-91</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Topps</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Jeremy Roenick</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$1,971.62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1051,7 +1027,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387876148070?_skw=PSA+10&amp;epid=6056490091&amp;hash=item5a4f385366:g:e-oAAOSw5RJnnAAO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmTdaIIsRXBbPQYb%2B09a05zIDTWPATPv95otZHLvYBqqnRdZSsig1QZe3OULv%2Biu1HzG4xARftWopoFQxDGFX80ShXyHJR4keuJxBrNTXF0Y3szQv%2BeVCjNU5vsIUYfcTZCkFyYZXK3Yt%2FhnMQl4RIpvLlIVlw5y1kFa%2BdVTJwEGrDIa%2BEU0T0pfxl%2FbJpFILEy3AWljiJu3ACYB19hZVXFEpbZeJ%2F6hc0O4mXExH52eQ%3D%3D%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256165557?_skw=PSA+10&amp;hash=item2fca3888b5:g:-kAAAeSwGbxnm31Q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0DcuK6UiUsinbb5H0k8aGcsWVtul6x%2FB6arHc42BSJqsc6eGkVtDehhz24MPfwrj9p8Xlvn5bVW2fb%2FJzGXbdFD9zw48Kq7R9pHuOj9zl3Y8Cv7yKBNdzj254Md9DeOclKJKKkQA5BkjInwZjrsF6CqW9TdSDHlJKEvTHOC8KC%2FfQW56uPq6vtjHWGtG2hJfazC9%2BZVcofZZoPlIasuM0Ih4MW%2FxUUmr%2FunwW7EXJ%2BA%3D%3D%7Ctkp%3ABk9SR5jYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1061,25 +1037,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1988-89</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Topps</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Bob Probert</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$197.50</t>
+          <t>$441.71</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1089,39 +1053,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365371450368?_skw=PSA+10&amp;epid=12056473854&amp;hash=item5511d5e400:g:mU0AAOSw1Fpnm~~m&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlcp5kojcomMJOfLE7hGkYWOrT1%2FwyJjioTe46z6TFydXfIcpE6nKpX6rwB7x%2BSuoId%2BYyqPtFd9exHQS9Ad6j3DhPMx43JiocXOliFgpvhaAMBY54GzbjkeifahSq%2F3qX2vB6x%2BuG0BfnObk8FelGx9I5kjzCR6I21CZdOd4vmKdDo0qVXmkPrsLTLPZ2Xesz4FQlfKgtxu%2BvMMM5GwbkrxLsA0Pz69HqLPgNfJsV7qdsb2FKlipO%2FZ%2FZz1M1OIIpKHgpiWuP0opIBEVA830dk%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256168469?_skw=PSA+10&amp;hash=item2fca389415:g:~HYAAeSwW~Rnm32t&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnqRlEi%2FUZN3lI3ZSOIcX%2BrctAHMlV%2BJ5XiW7slInvzHe%2BRi%2FjCd8laNxeSZ5DfrK8whrH9EZJ8IW67IgvQQLpJeDdvdJeUPYKcvQVxetbMsI74HXzU77fVZbctgnKaAx%2FYjZe8j%2F9P7cL2cMnTn6Xhfd21NoBNy0oqEGKV3hu9kGPdwr9ac7bD74ckM4OONaSRhDML9o3VfaL%2FtfUFD7r7h%2BZPhcEC8jk8SWloF7sssQ%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Baseball</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bowman</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Red Refractor</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Jasson Dominguez</t>
-        </is>
-      </c>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$304.99</t>
+          <t>$175.43</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1131,35 +1079,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365371278155?_skw=PSA+10&amp;epid=21067696334&amp;hash=item5511d3434b:g:8tsAAOSwUl1nm8xL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlqxQhzAptHCs%2BTbm6OXTXSk3Q2Jv588XZ8Bc9DxJLFJov4NoSZRhjnOMjVV4Z%2Bu0iUemqeStEnh0HO5MzxNwuBhuIwwz86h0hn%2BAQAcDYo8UQV8fwSnJo6z%2FK4IY8QlQi7XPhCBrXz04rhITFJTwMEDpfahSqNkDPAflvBZVGIixu9pXYEt5H%2Fsu3%2FpOvUinHZZA1iIt05xO%2B60dsP4R77Wr3EuDUvkiAvaJ4PpyXANQ%3D%3D%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256165633?_skw=PSA+10&amp;hash=item2fca388901:g:82UAAeSwlTlnm31Y&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkuGeMWmzY%2BCnTb0Vuhv%2BrBMp34uCka2p8s2F2BAPjUwaWlKDs9S98sTAawxjLCDBtpKHrbAXBQNZVwFBVHqJSAPUFsTiuEthiIKZGlPft4ZPsuvQrNC8PeKuvuTdvP0LdhoVRUfnrcvN0kSNQQ%2FnNAjxNefp9KX%2FpdgadQiYFxchfssv8IDeyb%2F0hmjfB%2BBn7MRRmxYKOtEIS9lcfZarI0YwsjnqS0gV0mz9dH31F7qQ%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Baseball</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Topps Triple Threads</t>
-        </is>
-      </c>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Vladimir Guerrero, Juan González, Tim Raines</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$383.87</t>
+          <t>$601.76</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1169,7 +1105,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365371282673?_skw=PSA+10&amp;epid=24055955158&amp;hash=item5511d354f1:g:7MQAAOSwW4Fnm81~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnVCrsxLKV30xKHy1wzjd28tYmStRDK6b5XpJtdBwO%2FhP2kNWO6WTnmJyG%2FyEOnLPmkW4vWcy7oOkxA3uusd9pwkfUB%2B1fzeURS76i1jcbL%2FT5I8rmZ48oo9GEXL5OAuBo9sgAgZ33o9h%2BIIV4rkliPJXTdpKVwCLGxdiyYJz4B2tslKuQ93rRcFgU%2B%2BRjrqT5SV3CfB%2FPjbjuOGZVRjiSZgJuFp%2BxnZnTi2z%2B6rkuyQWSEPPOu2tl7b0qKfJM7Xr5h5WNzvcmkIKrYklrsy2kQ%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256170826?_skw=PSA+10&amp;hash=item2fca389d4a:g:57wAAeSwxo5nm33~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlHlda0sCDKrtDF0Qa%2FvKn1BsouKBb5olbU4ecFnZ8Fg0CnJIkZGcLn4yNwEtrjARfi8DW%2FUpwXPCgrhTth9ZGE9v%2BppkUIr9hhMGwJD2pPQ%2BzK9z5smr64ChUp129evcX3wgWCNwoY3l%2BzzRJWBfZxJavSoCVGPNtDkX%2FvOqS%2FMzXQjXhHb%2F7RpJABw8n2igzLQM%2Bbg2RF%2BQ6hZj7B5FAu1GmhKLI4MIaalEjS96QW1g%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1179,25 +1115,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1983-84</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>O-Pee-Chee</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Phil Housley</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$571.00</t>
+          <t>$345.26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1207,7 +1131,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365371450096?_skw=PSA+10&amp;epid=3056566342&amp;hash=item5511d5e2f0:g:hxIAAOSwgphnm~9L&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkg8L3lN5uR5ik7jhVlijNeAPNgVhlPws6aOLKLkwUJOCIVDvg8Ht5rII3yUhkHOBKl95gxq1taq7jMu2tWF6%2F8bKgMlkphqNjk3MZ9z33TVjDlL4l%2FIMbGZHxChM9uYtXIvGbApSg6Ulf5ZoCIauwYZGiss4ZXAYOydJHusVUqZJVevpR6uJJBWQ975f3Bjh4xZNlaHeFhLOQAwN0NRhrsm5AMRYFfRtGP0XYnJhX9LQ%3D%3D%7Ctkp%3ABk9SR7zpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256170687?_skw=PSA+10&amp;hash=item2fca389cbf:g:~YAAAeSwRydnm35d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKniKyh0RHr8ALhvKBHObxWFPWLSkGl3YAB2k4dxxixbWtMZtlumvcD%2BR27PSD5kpeVYPWnhFKWLc6h85pXvQlxnIYTX8Z1JVlC4OFXAe8GNfrFVrD%2FtxeQXP3MJWTm7qbaJ6XXAGyxQNBZudabRmWrnsVHgdFdrp300cGvzrwCxQxxUUSE%2FbnTu0PA%2FSOsmN53TmSUHjzZTHVMqVjGjU7FYxu8Vm1nh1mAx8WKh%2BJ1nmQ%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1217,29 +1141,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Upper Deck Series 2 - [Base] - Swagnificent</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Swagnificent</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>William Nylander</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$231.10</t>
+          <t>$1,273.41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1249,7 +1157,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256747404246?_skw=PSA+10&amp;epid=20068470359&amp;hash=item3bc7567bd6:g:eJkAAOSwOjlnWe-a&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSn0jedFYfeUG%2B1Xar0TlWHMHLSllPiP%2BPpnK%2FQkTEH0UiJk8BQwATEHe6fTm0mTdXPY4F0HheEWPvkkibPTkaCFDWNbkNh7DLMEERPnj%2BJMAho6XRaGdyK4npfjq5ISIcuTMKF35S3m1QQDGhobBH5eB9d6gVgbiJwS%2FueBRr1QWsWW296NsAIHP2T1GxG%2Bv%2FrKOrYZCCfFH5ijNZ2Hay7VkLIRPYMbRyXTOdMEgYGCbmwuADZ%2FnMuG8bA1DZ%2FAd4v6G8%2FtZOsSflvtVazweq%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256165433?_skw=PSA+10&amp;hash=item2fca388839:g:7xsAAeSwbUNnm31-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnxIShFjP86ZT4%2FkTjB1X2qqQKIO7EZPttbgda2BCktTyii2ROUSTglAB1UWu%2FeFoIV54nRoMj62GWlqfbosGCHna4fvqUVeD%2FrA60Rgtwfsb7mrmxEKo1QOB9dUC2pRGGE%2FUY1yJ%2FthPZEtl7DL4zonRD%2F5gztl7MJerabjJK9yGG3IU5swLtQbBtPNNPSvGRYRn3SBXf0lQ0KeMyELIphqTY%2BUlQsl0tl3a8uZmwGnA%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1259,29 +1167,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2008-09</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SP Authentic - [Base]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>T.J. Oshie</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$396.10</t>
+          <t>$174.38</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1291,7 +1183,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235827876921?_skw=PSA+10&amp;epid=24056561340&amp;hash=item36e86fd439:g:VAUAAOSw355nM36j&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKktpfVtNn7%2Fs24nRmNHH%2FD%2FhBI4r61PvfKDqBdQpY%2FeBty8eLusFOWPWeJNCxdde7zqm%2BiH9Th3GTWeG%2FYXQTrvW7t5KIY13F%2Fzh3krZ0VfCE0mHnLz7Q0a84%2FBwcbixJRNLq8spBD2egfq%2F6G%2FDth7CurnANCCXByL7M2rV6KPKwIeSQjT1RS%2FD4qb0VklQzZb175pxyfnbIUAMp3I5Jkm%2BKuWOo62drStMrP8m%2BhNAELjFHskvct2dfGcxLvlEPsdLplPvaT%2B1bxVb453Z%2BGu%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256165477?_skw=PSA+10&amp;hash=item2fca388865:g:AJkAAeSwwqNnm33O&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmDGprLE6sJuwRYivsRlsRhUlHRdx%2BES%2FqDouxD4Tcv1P8Yb0%2BCu8ruGkXaZTPTYaTX8WGDR89rudT1Awdpt6bpmcEvUl1J1RqWnVB2RFkz4fM4DfyDVvQvVRWckoCCy4v6kUt1o%2FItN2pGkWJoAwXSfx2j6eBd7WPBj%2BQhGkanoXxMQYxpAymtjiH6LU25MVi1ddm6K2qHNA3KpVP%2FsaiQP06Cc68Fxq27h1wntu5EGudT3KsdWKyKUm5v%2Fw6ix3yM5UOPB%2FAoflk8gA9ddYYv%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1199,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$1,712.33</t>
+          <t>$538.16</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1317,7 +1209,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205256171320?_skw=PSA+10&amp;hash=item2fca389f38:g:8cgAAeSwfkVnm34u&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnF21Dq6LZk6Sx0XJlhGhAe7JvQcwhAiCbTL2R19XnVbpdUYGDxOh%2BU3I5IIUmDxcuygPmCEp%2BYNLGvgw1Bi%2FSU0%2B5stbRd3OiDhftqTaTn3vwV5KnISR6gbSxsxi08%2FtynkoHQB9rIDc6euB3x5NKAiDVN0eOOyxQjRHYt5A3A6VZmMXFukkUIErh%2FJnDWddX5v3X62Z3v36Zhi1%2FHo51Q0c5FTkDTVSQ9gOGd%2Ff4EASn85RU3add%2FINncaN9J%2FyffNPOFlZxS5xHYCYV2uobl%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256165349?_skw=PSA+10&amp;hash=item2fca3887e5:g:-tYAAeSwGEJnm332&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkYlIhqGEmfapgz9GTJtnJtfY%2FLPzvS5gHK8Vb1JcVWOdTu3nXFkNfLi13ytjMdncnyeGWionIqCSXCBv9QCZaYUFfMsSBdh7UQRHGMrF4liIBlpnb%2BGscbGGg%2BOp693JQXr9S9QnD%2B67mK2B2kaxnSL%2B5sBkH%2FvwXdxdAWXyDaziJ%2F1gR1nstlZ82fPuRy9PEQSypUOB5c5ZrhnsOwPAZQ21pLCI3zMV7g8bXKW0WqtQ%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1327,29 +1219,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2015-16</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Young Guns</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Foil</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Mitchell Marner, Patrik Laine, Connor Hellebuyck</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$229.24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1359,7 +1235,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196993309443?_skw=PSA+10&amp;epid=14056486826&amp;hash=item2dddb75b03:g:F-4AAOSw2yFno4pC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlq9gfi%2BUByFa68zAx%2BubZ%2F1Ll%2Fn2983PNAI6Y9yczaXy%2BgAJSUsea7OiFA2I208zUGyVA156S5LeZKdUeq7gaoTwftDEfvgoZ2MdGVXWXG1YspN1hTU895poh5c325EndIy2wxA5WxhuGgQsQnJF7aqT7gjAILd9yjj7BmnAslpzSKuGy5rH%2B5XWRehYkS7npA0n02DjalBZKZG6o2278o8MRl11UDptmNvi%2FFO8es4w%3D%3D%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256169994?_skw=PSA+10&amp;hash=item2fca389a0a:g:8FMAAeSw9ZZnm34a&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlIa8I6DrWpRm9To3mTZdWZjaDE%2BSjnmqlJDRu7D%2F46kYzRlCpjS2N%2BkEy6dqpatUcfyPUheichjf71b9qhnFJL6Q63aUfYTAxhOsWsTXQ7GxYScBwxHpYoApEaPqb19m7TyUfX8Z1Ub5Tb1OxLAqfoEB%2F03rcfKxoNX2Wdz%2BC6gtwu8qx7noC6qsU7ZLRgq47Ka0YBJuz8bAdxMARfh0uvL2F5hta3vG03WNMZZ%2FfQ%2BNt4%2BdB1cga%2Fmuc8wRF5Qu7OYuJY%2FN32vf5eXeL0Njic%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1369,29 +1245,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Upper Deck</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Class 1</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Alexander Ovechkin</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$405.00</t>
+          <t>$336.87</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1401,14 +1261,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316177145120?_skw=PSA+10&amp;hash=item499da05d20:g:260AAOSwG9xnkXM1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmksHeqRq7jRxPPaA9%2FerKObqtUuv6l69oxjAaOJdyVuiJnlenJZhS40SRstTeg1tjqke7rrt9R9ABBgWPwxeu5ll4HQJriX85LWB4Ry1Cgjo%2Fu4nkQGRbdrXKAzSMd%2FOfsPL0yhV%2Fa9%2BLezbeF%2B6HTjRgN5JW%2BMJco2VUNgnEwOZNkP7wHGmRU0su3q5roPTsGgpwzIIVu21HSEgDS%2FaNin0OMzfIp0UoiikImd%2Bcrgb2fT%2Bo%2Fhk1fhf1xPtc%2Bg6MRxI51ET7G40suA9Aer6bU%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256165103?_skw=PSA+10&amp;hash=item2fca3886ef:g:-eUAAeSw2Rhnm32W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlNfyRz6p5jLmOWVW1WR%2BT9KzsPzccvcUXNifNWhMpcc5dGraq2RjkUfMYpy2VMbb9xsPT%2BEy%2BqZ4E683z0RMyt6aHxQFpCxU2I71uMh3y7xPdWXWwi9B8v8atetHgX4yBaamUZZCnVLoe1Iq%2B%2FvwUY0Wym%2F00T4ypmaFRLEtpqEtPEIYkQyIIVcHKBOtPrOjJpIuHPfZhCBMBJrXNiIcR85Kal8cGj6SVTmmpImPtwyg%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Basketball, Baseball, Ice Hockey, Football</t>
+          <t>Ice Hockey</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1417,7 +1277,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$545.00</t>
+          <t>$443.81</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1427,7 +1287,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326398442471?_skw=PSA+10&amp;epid=27055973364&amp;hash=item4bfedcfbe7:g:1~0AAOSwbmlnexRh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmflHZ7ZfKWQuDR0m3zmTr5CMFCBHxl4Nxp7KhH7ODWsttzstb4%2Bs6%2B%2BZU9GSURedQ2k4YdaSP%2FqaWk2x5tQKINf%2B7h8URWI%2FqgPSSW1kMOBWABgvFi00OAO0OR1OWqIJEPlPPsfXXGrhSwXMlDoQ8H95m%2F6lmZd4f1qdarTnOMWo0ya5ZtDUHmM7EQP5WogpUnT6b7m5dI%2BdZlZxZFOAwL2i3sjTw4O1jKQkghHA2V1IPCuLGcLy1Uz7WEeIhpycvYqM6k%2Bh87a4lhZGvLYlxN%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256165027?_skw=PSA+10&amp;hash=item2fca3886a3:g:-W8AAeSwy6Jnm31C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmPR2jlyCAQ5STB7jpDf7%2BZiN6spDBwsr1CBi9Y8GIND%2BteQhW5KHSa0Fqn2cd8Q6ldH%2BuJktGMML1%2FEfMYyvddWs48gMIJca5873%2FkRlaHRJGapgu3fx%2BQj1ZVxm5Pjwi4aGyUklteM%2BHST%2FWaSOgiAEu4O9WjpMi4nlpalHe3irTs006Ndgu4f2oIpAvqYAs8ia8uqjQcfZqcNPKMd1nMPa9G7xK3fCbJQG6B2X5zuA%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1437,29 +1297,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Upper Deck Game Dated Moments</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Gavin McKenna</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$174.72</t>
+          <t>$559.05</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1469,14 +1313,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395854699734?_skw=PSA+10&amp;hash=item5c2ac75cd6:g:kgEAAOSwEGtnJNnu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlruv3dnGnAX0uhlp3xRjXH%2BNo3Zv8fupXq%2FpbdrmCA76HS2klRaj5hQOAiEigP0f6EIvYpNLudCd0qKOMYNs5KmFZ89QTGZFZK%2BC0jQ7JDOpJT09W8yU1%2FTq2VgobqVuzT9mLEB%2FTXUdwDgHyFUcpzdmS%2BGQv7PG84LlxacG%2FoQCemhPQIxLQsKHmXW4uFwfBbnv74I7dKF4c0NeqKgVfEjlTxZeGk1G7w7jknaXZXuSckr6jLbXxm68qwulCtVHiTv5tLrZ8tYjpWtNJlnmwU%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256169333?_skw=PSA+10&amp;hash=item2fca389775:g:~RoAAeSw6H5nm35c&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlGyicZ4xiOuVqY7%2Fv8KOK%2B1yjBMTLZU85EpkrZaRyBMmQnn70pFlsneLJUnY47XW9Lmuy1grLgRfDafCKRwoozAjs9%2B6Ux2sMXo5dnpUISuTxeL3iQzCxPgckR5q8JR%2BtU5BZShjksGSWhR1X5ZkbNHXL6GF3KFwh60q3%2BLVPTkeArrWDIOhsflBJGkxMpxdan%2B0VVlBBRMjs%2FKvF0CZsrpqVNo3I16k4%2F0hKjCs2Vbg%3D%3D%7Ctkp%3ABk9SR5rYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Basketball, Baseball, Ice Hockey, Football</t>
+          <t>Ice Hockey</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1485,7 +1329,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$295.00</t>
+          <t>$244.62</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1495,7 +1339,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326345746435?_skw=PSA+10&amp;epid=8070881918&amp;hash=item4bfbb8e803:g:OAEAAOSwomJnPRUV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn7poqLxKXpYuDlC7oc5uQjV2q%2FH97jCDSmSUJwm92MY4z4S%2Bl%2Fjsn2khpfW4RuEeRCjEvFhNZr%2F4%2Fc0oDOAS6IBLpkwj7zMG2q4UySJDEp%2Ffi%2B8Zpq153i0CXlNjJ--X4QisnMZ%2FBfZtos3c5DXT19b23vq4jPJyVnJXs%2B3nA0UBWa1sn5xrrao4bNSMcShpcMajWb4lW2NG526dJjxSfzWCJSOvv69Gc89u4f8J0WgA%3D%3D%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256171117?_skw=PSA+10&amp;hash=item2fca389e6d:g:8D8AAeSwItpnm34o&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm3yFNdG0nhNTS2jp0Wi85eAdujonZjdz31GuftjFYP3vHVoBIKOd04EMom0FbvAOsfkCxXyxDfHz%2B0b3rT7KBG6VuncA6YTLSLljwUlbjD5Khd5Vew13V5kxDstERbnH9dUCM2GXBiNC5mqj%2FRjTgcstXuG2DpLJx3FyLxxh3KSnZPQgQ66TeH3IFN8OZypfR5wpn8wDcxRYLSMcgU4PEP%2FcqPuuwmhB4F%2B%2B4rFXT6BH2ORLlXl12IPPCpBGGIQJoWoFMb2Al2jfbg15Rpxi%2Fc%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1349,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>O-Pee-Chee</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>OPC</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Gary Doak</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$495.00</t>
+          <t>$195.69</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1537,7 +1365,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176725263330?_skw=PSA+10&amp;epid=13056475838&amp;hash=item2925a583e2:g:LLAAAOSwaq1nVZ2n&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJBOGHPa2H2kSN75i8PAJpaBm54VczXj3AJEGGHmbM0EKUcDbRfZJ1JtG56SqQB512FnJ57V7b3kJIAFTF0oOlv4vk3uUtNvFXQuV%2BIPOfZ--HDVOzK8E%2FP3eH%2B3PVqAB3ym3mb1eWiGBjHI%2BKEjg2gK31NDn9MyTULoTjTCtH2G4FvZyzU5ahJMASDW7zgS44XvP9jo%2BZ804YurySu4QKy3BJ0jOV6IHz1%2Fr%2BMy%2F2xxvPXB6IyfGXgIrhBiWz3Z9SjbTOacjIyBYa%2BluWdCEw%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256170978?_skw=PSA+10&amp;hash=item2fca389de2:g:~HYAAeSwHvtnm356&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkJ3sleX7blEeOYvYnDuSD8lSjKkf4vjbJUtn%2BCcqsIWt8c%2BT7P9VFDhk5BN3YEzHOqvRMGXeOBrjt3EmstZyEmLv3UFBjgQNAXRY%2BLS8wICiUqYUgVbvKuM4MYjH4Gtd3mzj9UROl07n1viQ4lFrhHKcmrNZ1T9RhpymfVgT4uo3u%2Be46i4yF2fi32QaxwucaporSgNIOAKrThruSW5ilZlFOi02alSQcz5qwqgWb1Xw%3D%3D%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1547,25 +1375,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Corey Crawford</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$192.55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1575,35 +1391,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326391793817?_skw=PSA+10&amp;epid=12060316658&amp;hash=item4bfe778899:g:YL0AAOSwmIdndsZ9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnKV6MiCdfDZWcfACqSBuXoEY%2BkuYxOL18HWifLwR7iduaHdZ8jtWsRz36YRRzuxrqJku8jMVQYw0lvJiqB7s5cQgFDlo85LRqe0IUUHbCIqsu7DqaqWV3COKLbHubBG15NH6wAdXJROL4M2d1r4Sbf%2BlBhC5QGif%2Ff%2B4HYq6%2BOLtYHzAH5M%2B%2FL47p9lJKoUNwNYyd0PNFq1O0LCTY4r2utYKx2uqlGK9t83eIJtUMa%2Fg%3D%3D%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256171303?_skw=PSA+10&amp;hash=item2fca389f27:g:-D4AAeSwMu1nm32V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlB5%2FpsgAHQmgvf5IQ23IUsC3yTfXLczkvH4Z4qYtZeOBuH6cRp0B7rVQDpAKa0qs8Z5c15gTL6ATs5ByHSzJCsqy5jnopjSosUbttIAuR3C3Ghq4INJuQXUp5YOsoN3l3hgcY2tcHWrgt%2BZL6%2BRxcla2HwVc%2FhUSKT1zxblIGe3gX9wgf%2BVeNLXA2QiaFexiHxfPeWNppwNOoDnWQzLbO12pn0mj7LfOStwwPEppGCuw%3D%3D%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hockey</t>
+          <t>Ice Hockey</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Upper Deck Allure</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Adam Fantilli</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$213.17</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1613,7 +1417,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226575883403?_skw=PSA+10&amp;epid=15070480672&amp;hash=item34c0f99c8b:g:yPgAAOSw87lnnXOF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqmNNlNBnrdMmvo1d7J9rHxYrSRW0ACgZ81ZLHvBdgIMwlrJ6JpTLkMyt0vkZG5e3A%2BBXhhYlK57PQ2JHGskdZ5NN7aiNxDZhwi4EsWc7UMqQfNcBo%2F1KNW4G2UVFrRZgPg%2BUNqgQba72o0NmwFSDwpKHb6je6q6eoKQHJ8X09zzmAYnB%2BZsN63c4qyjZKclDjZsX0M66bw54RC%2FnfVIHNnf4RXcmDZWBdPon%2FZxbkWDcUmw7UF3fezP8%2F7bTl57PJA59X7490NHspj3TKtF8i%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256170662?_skw=PSA+10&amp;hash=item2fca389ca6:g:-fQAAeSwh0xnm33s&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmhUilLLk93oDuAlZSwJXqXZIU9frWdE4uY0qh8KB0fRC%2FegSDCpE%2FwvogzepBYsMEr3hKiyohgVs8uWQlbMU2xcHDQPBGhpPl21kqXSMKc8t4yYZbqkz1w8iDH84%2FyuEfdmFhoyXIPJ9%2F7omzbk9dg2mLnRBVEE1WBq%2FpHwRnfiFoyCc5iEd%2BTi%2B0TOawk8P5uCqtTWCq%2FYfFohH4eHqoFZOw853Hg9FH%2BHphYb0KCywzqYUb1bml%2Bww3ENX3hkLLPtqLfd4vz%2BaDSmr7mZIDm%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1623,29 +1427,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Upper Deck Ice</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Ice Premieres</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Connor Bedard</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$279.56</t>
+          <t>$175.78</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1655,7 +1443,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226563741481?_skw=PSA+10&amp;hash=item34c0405729:g:YTEAAOSwvoFnlA4U&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmFwZyXN1kALnnIZj3TApfzVlMc0hBtD2NU%2Bzgr%2B%2FyE1fVdw4Qf3KYZFcJCyBNl7za%2BAWZqutErth2Yc2i54%2BUjqnl0SCQKjLr%2FDCYM2gAR3f5MsYBGbEKzcqFXRCJDt91wikvq9IUclZha%2Fjj0Tv%2FTXAFk8wQK1NE1UKBt5S3B%2FYVpSohUA2Di8bIzfaio6QPoPlEBE%2BKuBFhoo3lYleDDIg6fsU09d9b1H2aUfsS%2Fhw%3D%3D%7Ctkp%3ABk9SR77psIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256171071?_skw=PSA+10&amp;hash=item2fca389e3f:g:BGoAAeSwQSlnm35z&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKln6GE4yvvJo7cOAbkcynUSv5be4CPkvZqTSXntCNMK1FNOsJv32zl%2BUE78pw8RXGirDQr3nRXOa%2FA9GE68RIx%2FAwOTMRAAKxItb%2B6pYi0X2QfOzIsREuwgdHkc5wmaeZmqGSd8q%2FhaNX2OzgjEpU1MIT6EWbYNiMltmWGDNWYbpPXoWYKl0%2FcjfvyGeK7oNB8VSH1uRLvCEhBKaEW81OLC78czfeltlIryeOB0cCeNxg%3D%3D%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1665,25 +1453,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Black Finite</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$391.39</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1693,39 +1469,23 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375972239424?_skw=PSA+10&amp;epid=6056493817&amp;hash=item5789b11840:g:zVcAAOSwlrpnnIk9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlh%2BmxUqi%2Fitk8USHRtPtzlcoVEQFwZrf7i6RRxnHxMqhIewTZTNMorB20CYPS1GJo7TKoAnqcZncNWHW3ifXxD5p4OM2SGZH6YNPJ4TqLpOkZksO9h8vwUeE6kA3LILBGedHzn3DatvDNzSPaKd5SU9KRNoU8PVpoyZVSLWnKCUG2hID5njHYQUfAHk164uFgwOWHBPXXhUZnZtQf0Khsi1JT99tWQArSfP93rEjAC8w%3D%3D%7Ctkp%3ABk9SR8DpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256170050?_skw=PSA+10&amp;hash=item2fca389a42:g:-tIAAeSwqP9nm33H&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm9j%2FaaYI3N2cei4ck%2BpEHKQqUz5bt0uwZPZHd97YwKue5UnNFM0JlslvXkP9Ggw6vV8VGLvzEglq6I0vvnaE7Gpu%2FMeXbnRACo%2BWY8ffTrn1rsWwpO6vxblof4EcVE62wOxY1b9WW%2BO8HJnDhn%2FxcG9VIKZTPTSzjdYPWYAAMeTOQPa0wM1lmH6pZpnmkxJCR18s89qUWQeSQltU7S9WMabZLRgV6xEkQQxnZ5%2FfAcTw%3D%3D%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hockey-NHL</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2005-06</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Upper Deck MVP</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Breakthrough</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Alexander Ovechkin, Alex Ovechkin</t>
-        </is>
-      </c>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$369.08</t>
+          <t>$159.01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1735,7 +1495,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235750140435?_skw=PSA+10&amp;hash=item36e3cdaa13:g:QKEAAOSwCwJm6vsv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcs5ejGHrMuRSgmZWq%2Bgh0msw5rHME49T2LRn0fWHSZXKaAkIbVRG7%2Bg3BtKga9DRycZcs8FCdsMjUG2R2PCIDzriktmyF7HcncaX9Gx%2F8rQkt%2Fn5hK6ouHyw1iteOolwIYbY%2Bn4Al%2FHSJJTQk8hqS2Vr8v9sxhBMXjZzoE7B1%2FBQ8eEEhN3dNgVNzcbIPutqMMo%2FbLm3%2FxAuPEhu%2Bdwv%2FWioP%2Bemi7DDEbpQjwA%2FbMQ%3D%3D%7Ctkp%3ABk9SR8DpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256169174?_skw=PSA+10&amp;hash=item2fca3896d6:g:A4gAAeSwqNJnm33q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlI8BbIIYSzvzYqpi5w8f0ZHtWRMDyRZcqNmLK4MkHmi7zlLgOuL0uGvLQ%2B60jzxYTkSQk8BD2QPb6m1UJy2HcNPtWqPTopsXmmk%2FFP0kwL1qzMzvvRSlTU2zyipyXlTVqc4TtCcJ62rBVZUIxgpBsLm%2FqVS3fPTNf9TKGMuiZBkic76ukbnA4EK94BxHxbauF%2BrHIuOms%2F7QOGqYLkNU6FejAK5sNR77xIwK6OvHuYq%2BvprqaQCrW0DY0ZbQBXCwUzEiXMWeIIzcaY3qzASU74%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1745,29 +1505,13 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>O-Pee-Chee Platinum</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Retro</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Leon Draisaitl</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$215.00</t>
+          <t>$1,377.55</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1777,39 +1521,23 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186898626783?_skw=PSA+10&amp;epid=9056555724&amp;hash=item2b8406b8df:g:rRYAAOSw2x9nibut&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmxja4FWM1L1f3Uo3MYGfvXaj%2BleHP%2BO0oY%2FBDK6zP0KD7I%2Bt0%2FIG4ighAtmGI4g7fGB%2FcNANrhv%2BVN3vkcDS%2FBOloEETmmKuqmwAEQTEicc9dqb7S%2FnQ%2FidVkEWVO3hwK8rwCX3l1U6vPoSpMv4bGbcmGuY4A3j%2Bj0Y9v9w8Gg9w%2FpcEobBd%2FbbVa%2FtEgTe4G3Wru0eW%2B7uMA7AvNKA%2B%2F0i--YepCAQeaQ0al23b1to%2FW9cg%2F5%2Ba2lPW5vsYYunq%2F5bJPzhbEe%2BOPRe6t74dFK%7Ctkp%3ABk9SR8DpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256158611?_skw=PSA+10&amp;hash=item2fca386d93:g:9AEAAeSwtvVnm32H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmMh1RtiIcN4FphAuoNuTqlHlBLH%2F6KiBC75NwICe4txvj5jN4Q9pK%2BLMmAa%2FMOTS%2FE8iMRUheKSFrUFCA%2B7v8f%2FO0pfq0PTGY7VAXUEJoUKb%2BrGAcGfF0Ze%2F14YrgCCOViVndOR6SJPH1eHDfbMGn%2FwbfJdflWlhexbH7SMv6uJB%2B6xxhlDzYlmVC21v7mEc34bwVFDM%2BpaIwykvp6rH2fYSkIjCcWbpsUuchnm9lRxyN9An5aVJ9U%2FWjIWHfqO4OUPzqNtUiavPiHJ%2B%2BZglpj%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Baseball, Basketball, Football, Ice Hockey</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Wave</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Luka Dončić</t>
-        </is>
-      </c>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$899.00</t>
+          <t>$412.36</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1819,7 +1547,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156671230977?_skw=PSA+10&amp;epid=27056580569&amp;hash=item247a554401:g:XQsAAOSw4uBnoSVS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnqA3eqM1gGjzmprobzhDXH%2FyscZc%2BQnNAT0cSCw77fJuxbNcreqXPdGd3PMxw4vJxFSc9%2FBRxz7GNEoWiseqb3CKUOaWRJ5XpWcXhJtk2mxFv4fPBk4lF9VJZzWkaZpleRiTJYkdJGmWOhvgR6WKzC2%2FtmvulgM8TzM3CJZFcrRmRDE%2BWInbi6RW0LPxGsx3thPCTK%2Fnf4wnP8wBSqzzrGp6%2FLYzp6jylMhu1ZzinZtA%3D%3D%7Ctkp%3ABk9SR8DpsIqcZQ</t>
+          <t>https://www.ebay.com/itm/205256168595?_skw=PSA+10&amp;hash=item2fca389493:g:~T0AAeSw3RBnm321&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmI0hOjA01ni%2FyALEQe%2Bp65iyoacmWVkSTeugy0Nwue%2F3Ky0WrKSFi5FAQzwQ2FtEP6X4Sl%2FLqKzVOXwDYroZkYZxIUNUwVyjX%2FbcRaXRAt4M5aIWg0NraqqNwxUJGV23%2FAnMLqNjy%2BiO6zQsqq%2Be8QXeFg1NU9mEKttJKsNRORWXkghvwGOJ5Bnrn76b0Q79d3VJ8USKqu%2Bo6T2QXmOuwUXvyz0bPZMAgjroS9fGkSl4Bb6kyYdyV%2B1Hr2quFgeED1Nu9MzX3cuu9gQlU7n6iG%7Ctkp%3ABk9SR5zYqrKcZQ</t>
         </is>
       </c>
     </row>
@@ -1829,39 +1557,3001 @@
           <t>Ice Hockey</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>$737.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167946?_skw=PSA+10&amp;hash=item2fca38920a:g:79AAAeSwakNnm34d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnKVxo3X%2FAEsRNNh40RC5947jpSahTm78jr3A%2FE8E%2F6N5GzBrYhKvyBVMto902ZAT7c5XHugpbzklcSXVIVGO9IVhRAHxqFj6rlwtrcU6T%2Bk83KWccPQeXkkl2SGr18Ndzc6FxdG%2F7QBwoFmprjYvIzr7I8x00EbjnZ06bQq77y2s7g09Qjx%2Fo%2BLZdaiiMqExks2NGxkbViUq0dWQuCSUobWaeiPRVvsBDLtBcsYp5vAQ%3D%3D%7Ctkp%3ABk9SR5zYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>$362.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170702?_skw=PSA+10&amp;hash=item2fca389cce:g:7WQAAeSwv-tnm32q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk4h%2FfLa8ZCUo5ZOcJj1Yvf7wpXqiasZ1crZ6Q54cwTCh4NMaQcmW13Dd2A3CTvCJNFP2cCDssGwqalvmaOhLOi67cjL6OoqypjyFddHDk9bM3%2BW8yMy1W6Xi3vT7e%2BPPnr09VtF04KsJKo9LNp%2BvkyYpVBrpTb%2FtuAMUfZzWCwRe7G7gsQQhYAfwyaZ7zqcoP47AP1UZm7S9iLxJjJi5lsSAsXzMFMwu9nOMFdUhBcbhGn0sJ%2FTHKfaeZG5TEMhsJyvlZqF71VM%2FrrhGAqNqX1%7Ctkp%3ABk9SR5zYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>$220.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256171020?_skw=PSA+10&amp;hash=item2fca389e0c:g:ajkAAeSw2qVnm35I&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmy2ZGmRTTdGYDAW2zyotnuIJXU80M0GDDTGy2lohcNuZ2c6y9h4tsSKXfT1scVMWRdIN5P4Ah645TlVhAJk%2Fz2n8OP5wsGknpzyIAp7HM%2FohKlhkezkXAsfx1J2itv6JaMCtzizQP3U9E77HiQB78lo9r%2BqEWJmO7J0SHYtPChNcs4ox1T1HAxAWeN4cLge3mMf8xO1PXAZkcCkf8uGWeYVOa%2BKuLVJfKg3nE1PCIojw%3D%3D%7Ctkp%3ABk9SR5zYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>$160.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168207?_skw=PSA+10&amp;hash=item2fca38930f:g:~KQAAeSwjhVnm323&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQVIbXMHtMtUKSqqhRaH2carmx1Ef8msGtO19X6jfEQNP7h7Y5zUBjJaagbrTY%2FUovrnOrtcp%2Bz5ZNNWMUPr3X2RlOuBdID%2FQY3I%2Bs1yT%2B%2FjfAXglN2aqJa1nyjZF%2BL53KuJ43VCr9kBbxZNcoVMkdiwkpri0Mso0bgmKky%2Fp2WVeVAGGF5nIN7S%2F8P8%2Br%2B6g33rjpIzpFpi%2Fqkj%2BbabqqEzh7kTqgw9hDqUNy9BYCl9bT5GfA75KtPd94Af8RHyqrbnG%2F3VcP4rWY6OtM6OQ4%7Ctkp%3ABk9SR5zYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>$162.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167791?_skw=PSA+10&amp;hash=item2fca38916f:g:95wAAeSwys5nm31p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAlOlFjg4StvPrT9SDpZMnPzM4meKPhEVaRCJGmRxLm7qiYdkmme5Zl8yqEPhiwP8yrTgPPGhRKJ4LQ5wHxYy0a6nW7vnI3FV0ao5TRM9ktKDliHKCB8Dv1r3emks21cCrJqz0haDgHFXYj1sQOZn%2Faf2hi%2BkFBDmwEhVGfuQWjRAr41goVIRau%2FvCIaEkd5bOAVtUIGRihC%2FBbOnz8EJF9DIlju0XqpHDYlYzMB2rdGGWmdeYILPyaXaMpfGfGTo92P1%2FMUOZms2xYIeSRr8l%7Ctkp%3ABk9SR5zYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>$494.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168091?_skw=PSA+10&amp;hash=item2fca38929b:g:~0MAAeSweStnm33E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKneOWoIdUa2fyMlh8qtY%2BELxkG5%2FqljbHckrW6Rmi8Z%2BnzvYB9SpO%2Fc8U3uRPZ9O85GPh7G0uGa29i9WNpPCge1wL8yzHh1m3cjYsiEac8Wn8KcEdGwiqXpebydAknTSJEf0DNKhm0huwz9kCu%2FgFJfBvxUxBRgYPtN2nll%2Fck1DtQWAsG19HSYHdrEMSJ8PmheeQtsN9ujR%2BKEBpfMHHpwBCo0VPeSA2mXl06%2BNIISNg%3D%3D%7Ctkp%3ABk9SR5zYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>$751.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167831?_skw=PSA+10&amp;hash=item2fca389197:g:ANgAAeSwlW9nm35J&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKneAm87fRZtXX9eiqnPC8MofVMS8wH61%2B5RUB%2FVlf25FHqKP5aA80W81JnbaAA%2BRgRyqwByxlLg%2BDTg8c6Jz9ANUVaj%2FKtMEHIRkIHDZ0pEk0%2BDatA9PnvBre0Ub7SL7zDzzgJAgJeP9ENabtrl2EwJF%2BG6rZFh6Q50dkgqsZmGntV%2FCPvnjok%2FYji5j8POaE3jKtJ7SjdN%2FpFoLeXkvyI1ugtLYdWIqJ5sjV1HQSGgLw%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Upper Deck Artifacts</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Connor Bedard</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>$718.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/306059634947?_skw=PSA+10&amp;epid=6074618289&amp;hash=item4742936903:g:PYkAAOSwU0Jnkl9l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm1kowRSrMr2o9Dy%2FNKGhjpR1pPja2DkDkUJPmZevJkEqLc8YN59bSICDPBV6FLrjZQhys8DWqSUnIVbWA95L0O7YPBDEo65JE4Gt6G2azVrW1DkpWzE8Bec4nexuB2KQg0rRvid1lrC9dLrnfe--GakmxlGvucAjVio8HP8CFK7DLQA2%2Fd6hyfvF%2BgRckH4hCOewEQ5PzDP4uG4Otm%2FB2LyKEYohVQ%2FPKy3nekUiR7Gg%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>$156.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256159737?_skw=PSA+10&amp;hash=item2fca3871f9:g:AC4AAeSwfDhnm317&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmnz1Yjq7%2FHjpMJV6KgnpUM3USCMoHGtw3iKR5Ut9R0ZXKOjrM7uhaJzqOAjkFePTKtirTVL9OQYzI01MTXzPARK5gQw%2FE%2BFkQepqlsvGh4z%2BHakKtlxAdJcBH6uDYo0qaEprEBSVct9%2FJ3HZIRz8p4PYwiZWDucGxWfeo4hwY88slgB%2FNnWfhHh8kW9%2F1I0ZEvob%2F0wH17TSCb1X7JER6W%2FibkKGHhFcq6Uw0sRfjubg%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>$161.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167953?_skw=PSA+10&amp;hash=item2fca389211:g:-kAAAeSwn0tnm34x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnfl3OlB9gMGsxdrxfvz9TFZ6BMVuEpTMJ64bwHdutIcnEPuNBafjfjg6yxR3pZYbauA25K0G89skGjMqZ%2BQ1auyZM6SoGts0aDaOobJiasfjssT%2FKWrDQ%2FEnl2%2FBMtPuRLfbdcfIAmPX%2BXEXRwFDujfef5WqEz940wAFzPA4U7pWsFPmEeM9FciQnofAI0w%2FKz6BPRSksDNqbZnGqQd363DN88HdTFKx7JdWSy5ywB9g%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>$155.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170226?_skw=PSA+10&amp;hash=item2fca389af2:g:9LMAAeSwwAtnm32u&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkjVAfEF0ybAdC8dtOCsutTFnmpL6Ym0IW9708%2Fb9eNaw%2FOTnnhH352kFb32%2FqAwZyQjknyHc3Kgj%2FSRGt3zg9vCjXsEWX8FTng0SN%2BDss8SuA1tMOT5ItvvyHTDqghzopdy1cobatDyN7MLQP5p0XydymFbFCC3U3akRzztd%2FfYrq4HOCWprd0ak1cTlYBnhVEGq9VuL155iLpRhs3xF2%2FwtGIRtD9pevkapWZj1UBvawTM7mpLuEW0LG6hYhzNE3YeHS5I39Lp%2BlSCP%2Ffh210%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>$318.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256164805?_skw=PSA+10&amp;hash=item2fca3885c5:g:9ZUAAeSwttJnm32f&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKneurm1NeMtODHlQPiINptPkN0u9W27zNoHH%2FATetsL3dEPaRN%2BeyFa8ZuhPkhzofCh7hS5D%2F1LDfIpDjHJI1fZssCqVLfUhlRxhrcEfs14Bulk8B2x%2FeV%2F0xOQQ7%2Bk8vf%2BbH1kmWFOk8LRGCzTMNO8E09Hpel6TSjsns8WI%2BHAE0uBhxTb7V105FPMOa%2Bg%2BW1h37bbO98Ut%2FuoPqTkfy9beoXUf19r%2FRiAVsr6BDP71Q%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>$237.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256165824?_skw=PSA+10&amp;hash=item2fca3889c0:g:5w4AAeSwJ5Znm32P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnoI%2Bi03zo5vvh6Z4gLCL6Q%2BF4yoQ97qNm1OI3r2naYdQASoQDequI97NWsCbtQtPGEL77NhHoU4%2FcHXMFFCJoQlkunhbCuQuHAdhL0gyd5OQR4u4igZkytBxTx%2BpL5n8JVNAoiyuqxTmtk9ZaUgZt2j6h7GEEHDNmKqvHJzOqqj5Qs3jpn7jxMFVDDROR%2BnEMLnNES8K5aAJ1eZOfRtnlNcFhw0zGO8gIlkLFt%2FZrbnw%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>$213.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256159381?_skw=PSA+10&amp;hash=item2fca387095:g:9cQAAeSwQPpnm3zV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlhN%2FA5nV9L85IDXEfPXhn3xdTJ0%2FoKbh%2FZXJycvqL8qc7StHzg7PxXCcRvoPyqrO%2BC9irBvjKDR7ezdSmPDupjNOZEcKp%2FPgtlAdsGkEUvuae01ttm2mFRuzZHJrROcyhG%2FbQk1FM7w1wjVLIihLpZIc%2BZzchhthFwbWRu6akPh2ao07%2BlFR2YPVyNTwcDMbBmRoX4IIw9VOqGd10Je55imDQtzAP0l%2FhZ9yNwwmZvkXIggOftXilp7l7uegBGTQ%2BZpc97z%2Bfo%2Bt2A9HMkXR%2Ba%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>$244.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170093?_skw=PSA+10&amp;hash=item2fca389a6d:g:ACQAAeSwlW9nm336&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlir16uiPWI1NVi7EeL3LDrlY2AGZbwMOIpaAUqSjs1WFActTaq93Ch0kh7R0--Gp4xjKP5BnPnuG3Ag0YGlTSlYlj1PaIopwHfvRQdkNqq2IleG4hK9dO5FEiCZwSKeN5bohuUCDMRXgZ8DZPE1%2B1YgRf0SKQUqihQKimXKVNLasxzCDvS6lRwkXGiEPTOt%2B%2Fh91iLq0nI22P2LYBHDiZFZUeDt41xdLWMMwLMe1WZeg%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sidney Crosby</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>$280.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/306069340563?_skw=PSA+10&amp;epid=26058925856&amp;hash=item4743278193:g:WGAAAOSwWdBnmCMl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlB2vY7KwaEDhfo3GOyFqsXLPhjjFblVospdX1p%2F1PncteiFvcsAMV305SiSDCnPfzeQoOtAoLjXJBMIjy4xgbYLaAZLDH%2FkN2S6obRXEWho9h%2B48uHyGSpbZVHfRuwk44KM1VhkC%2BJqOIacwBTuufWNJbRhRgcIY1ifDMFAZOAmVeshNSCdKzVS2Tw8f9ef0D4d4NvcCUitusFgf5QO0tRGJqn%2FUj6avBxw3O9a%2B4XpQ%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>$175.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256169968?_skw=PSA+10&amp;hash=item2fca3899f0:g:9GwAAeSwwAtnm32C&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm8XT9sUSErxreoC3GxpvXm%2FollPU82eIymXoJxyRBHPW9IXizyYBw2UJb3z4L1CneaFuELpEPF%2FPbQYh28X2Uytk5xT5p02QZ%2BjSNvQ3xyKPUlKFIx3JUDLl0ynWiKMjzRPKJiC10uBLu6lJShWzSYp5QyTYp%2FoqQrF9QnqbKd61vs7pv7wvHgufwSQvCkiFR7w%2FozAQ%2FyxbN5ZCw2Pqa0Rv%2Fg7N7uGrJpxv1%2BPrzx6VLvkSYTcsQH0Xuzo4Fg1%2FXeo03x%2BPpZNUHAKlr1%2FEV%2B%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Panini Rookie Anthology</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Nathan MacKinnon</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>$419.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/116469970237?_skw=PSA+10&amp;hash=item1b1e26b53d:g:LGEAAOSwcatmsYQn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkEebSMAc%2F6g7DtAu7suVc1Pat9FZZo%2FbBXMKHotjxFfkIGXYDbCFiX6DQTTEQRdQGFMjh6%2BgF3DvbF16bVtUXKr6tdhgocSuyCH1yfQ995eVvWlAuP%2FqolQRW%2F4pL1%2FzeVTV6LD2tFou21DNGPzcrAuo0jiBxiWhM%2Bp8FFqg31QaQK9mWzW9e4TihDz7M2%2FNA9Sy6JAVCBNwhSUqsSi4fNyRVzpmz1RAXnQujXYQEVbg%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1992-93</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>HOF Player</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Wayne Gretzky</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>$189.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/335751551463?_skw=PSA+10&amp;epid=17056540575&amp;hash=item4e2c5a19e7:g:A6gAAOSwiupnczZy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlO7M5VG%2FERmqp934GpSsM0q5dHU7oWxKoGw03J1bvYdyc8QTmvoEp5XWnU9%2Fu1ITpxnIL%2FZCLv8oCBjD48wJJJZ5vNRYHIDcAQw94KPhACKlxSswRrxLrqQzxTrrFw3MNMuAgRdqX%2Ffn8hoDZR9GGpSSgN%2F8ZrMijMou%2BPYvOE1Pzm1eQzuLdCoknaxfcjhdt4n5cZVTLocYAU6q1NayjQipAga%2F3g2Md7OWhYAjI%2BHt4wGa0RtVHCvX8l%2B06xNuuZMOf%2FHEUfkJLa892RlKq1%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>$443.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256166221?_skw=PSA+10&amp;hash=item2fca388b4d:g:-0wAAeSwLB9nm32l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlEcl%2FZJx%2BhmcuFtpcGCsA9KVxi%2B5kbVVZ74OlWdyFvbQ%2BqiSJecJVxPSbnhdhv4WtebBRzcogRMlj4KnRf1rmtsfG1%2BNCOuhAKSr2AO3hYNYJQ3az8aUVRnwfTTt0zSQRQgzLlKR8WP5InQ5YDgoOlys0VVAXqves7NlhWSTY3hhyFnubzbuX08lVjUqb%2Fv6hW06rSuWBZ%2Brstd70jN4GOtD%2FC%2FgIps5PhbnsfcOdrqg%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>$201.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167660?_skw=PSA+10&amp;hash=item2fca3890ec:g:AHUAAeSwBzlnm33y&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlDu4spvTRr13MM9gVP3x6XFwMPUkesUrJ8z7jzCzPzS0F1EWn0nUafmfNmn3vmut%2BP7w%2FUVX%2BcBpYyZ6tOQZ9MOt%2FqUqVk%2BpqayBqCltwShzs7AXnKWnVlZrH8lzy1I7jGmRTIHk%2BoMc3ZOsJKnQh3wnLpTi%2B18OGmt2QXODtyv5RQkaN%2BGbddDLtm8JmqhaCceyZaeCgBFo7MrMiWfEI9CQS%2BT8SwwkAxJG6O2YQ9aJcVazCtEtWcCL8V%2BF3YaiK%2BJNx5OMmijUmlR%2B24hOuy%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>$496.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168065?_skw=PSA+10&amp;hash=item2fca389281:g:9r8AAeSwie1nm34h&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEPiBpDee1U2XlUdkXIPb0DWyQadKUlkqdUWuClsGIsyVdoZBRo2mMbetjSRj68%2FTMDZmSuQpAMHJ7fXzbYFCdscfqijIQ0jnkm6n%2BxPMFHO2YVtxECa9uw9zeAZww2bVCCkH0ClbDVf7defeNifTmsXEK0HeHezd6R1vgfI%2BtAMH4xwtOLHEntY83cAqWtdbhUp2PArSbMIItTiLgK0PI93Pbm0YDtf%2BYZdD%2BuWVAHRvz4Ncq2HbfSTR4Ye47ZILTjCQJ4IuzlLMdFUA6XqQs%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1991-92</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Wayne Gretzky</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>$174.50</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/365371451505?_skw=PSA+10&amp;epid=16056476944&amp;hash=item5511d5e871:g:nnYAAOSwauBnnAAM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmxnqrCwb8KUPbbDInwquuVWkabP4Qmv6a%2Baf6Jvn8bDFGEbjA3%2FLKF3OszZ7jA7kW0x6bBWKwLExlaAsKl0Jl7CY6YVQG1R%2B088wCg14CrJlS751Cv%2B0AAkw%2FS9pNcYFv6GH3xK956cXAN3IE3gQI4veBw3HJyiAokMqx6JLmJv0aMd8SIVAAN9C9XpKUTW5pnmvtY6%2FuKHLC7rV1TSyTKGBSSdB--9W0FOc8jZpVCuA%3D%3D%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>$5,505.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170690?_skw=PSA+10&amp;hash=item2fca389cc2:g:AsEAAeSw7rBnm34J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlANe%2BCyd7pSmoP%2BGuYKrUiJTkghgBrq7G28HhELlfRJB%2FJ7dvIt%2FZzwzOc0yKvgqZa8c2kN8YKtbGYgnMtKt7WBBNcQxhv6qrXei7GjQ5tI84f7WwbjwS4jyQOHToJ7FOWLlTtXq38nE6eJXnUodUcZ6uus6K%2BJO9jq8m%2BbewSJBqihpyni1XRuqgsPhDke0rVXQsr7Qx2hElN5rXUS0%2BYQqXQobf1A0hcLudQ9YMn35tY1s9CNCAN%2BJ3%2FGGlDzsMuVnH1UfkGfh4IDfO5L0mz%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hockey-NHL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Nick Suzuki</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>$279.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/256799309417?_skw=PSA+10&amp;hash=item3bca6e7e69:g:F4EAAOSwDlFmCbOz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkYmvyVoBfgup%2BNpF7TqwFwnca5cU61z%2FgnUyFkZ%2FAGp2mMcCi0KpI7MwkqhtR6P9Fa5WZRPH3OoYKl1%2Bfl2K%2FWESM9jV1df2Ev6Gg3sX%2FORQJrNuLE49%2BOY2kYeZBMOHrYUt7ihcpzPgxxREPbk2OEbBG5l2kLG3VsEba3POUKllMoZzVRP9g5wiiAASfrxMQPE%2FyjbzVvKruTKGdtamn8iQXMJJWIk74gIa6rrch92Ub3bSpyrm4cdCFH7bn3xFPLkaCt86HrbNBh1QL%2B5hOO%7Ctkp%3ABk9SR57YqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1990-91</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Jeremy Roenick</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/387876148070?_skw=PSA+10&amp;epid=6056490091&amp;hash=item5a4f385366:g:e-oAAOSw5RJnnAAO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmaiprhWkWO6Nio--Y3dSr5ue%2Fe9V5Zb4K%2FTl53Qn8hqI9VuDubSh336wwNTgOr66v9U2vVH737FxYio9iAN4Cq7rEkLYksdhMzc0%2BxF0z024M3%2FBfJrlO5hkaaFNA05fkv7U1q2nxrCJh3G2WbGPMLFP%2BQ9sE8oyBE9BVuVhWh1tDNF937XttgXR3pp2seGm1fNID0o28CLIOmk3gotpvtnoZGONF4m25jzckpjKsotnaOrXoBTLQsWo1YWGEODtsIo2ip%2FDiYq6utgU9YCYz%2B%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Bobby Orr</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>$475.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/276819461452?_skw=PSA+10&amp;epid=8056487337&amp;hash=item4073b9c54c:g:OawAAOSwqI5nik9f&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCHSwa8arY3b0A--kxxVomuVzRGprDLguIHxbZvPFrsgoTcoiYKiRZ18SjT7QWARstI4jG2bcddMobPL%2F5BN4C03Z%2BtRbkBrrKw22EClMvNpXttF7xXFTXY0avWmx0XSGqygFIcB%2F4YIIGbg7n%2FUiqw%2BRiiOfZQ%2BZj0lnXEkv545wKDxI2UPeTmG7lHds3AXsr6QaYRwvnusJ4GMwmB7mNsFeg2IVv69zI%2FKGO5shyiA%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>$231.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256159897?_skw=PSA+10&amp;hash=item2fca387299:g:9-YAAeSw7p9nm3zf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmfVTpncAQViGijQCAAZqflaw25mIMBs0O%2Fk0p%2FrEj4gEls1dgZs4py5k1YfHPjbNnm%2BO7Txv7UsmSDFX6OFPj9lqC6AbTnIQPRf77tH4YcbBiUFB6IO5n55AZNSxfUq9UW3r%2F1D3N2bnMEOlT4fqzmtW059eQ9XDZV8Bh8uvDR5N9YIMBiUfNEe8jgHDh%2BQN6EFvKGprJQg%2FPyo7%2BkX2R%2FxYP%2FbgWVbp36xgrs2P4U6A%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1988-89</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Bob Probert</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>$197.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/365371450368?_skw=PSA+10&amp;epid=12056473854&amp;hash=item5511d5e400:g:mU0AAOSw1Fpnm~~m&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmOvNGdMEFELMNJOO1qqIeqx25rlxTGrNStPP2Bvi2JguF040kayI4YUu6l2TEbzEg7QeyinNTAkjGe1pgG9F%2FlQPgYeHjJBQhgjPUF%2BpIxByp2YPLr%2BBEttHM8p9%2Bh%2BaRs6zX8%2BQtn%2B6UmNfue%2B6sE7W2Qf3IxilaiIeR%2BTP3myrIiED%2FmojGeewxqSpG%2BqbcJzFp0VuXupiCx7RlsdJMDlQZ8ClDXCI3WtN38Eq%2Be4w%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>$195.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256159809?_skw=PSA+10&amp;hash=item2fca387241:g:5kIAAeSwFBpnm3yv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkYCI91m4qxIk467Lir9%2B33K9BUhuxJEQ5MepYvIndvzFKKe7mEaAZ4Il8dHEvplKhC7EYJmKNs%2Blai%2BlptsfJQajOiMDMu77X1GYfwTS94jFM%2BDNqMVSgAhGgfE4APHijugBRh3O7TYp%2BnCPWso2%2BtfMtpTmmqJe7EPNIcunOv7jLm6d58BMojatkq%2B1SOHbMv7pLta%2B6MKG1RCHhI5jO8btYJnhrsvdS8TWj%2B018vjGq3fhjq6vdIbB1koD6v9MQZMnx%2BrRiyfTYNJiAr%2BxNB%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>$431.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256159600?_skw=PSA+10&amp;hash=item2fca387170:g:9OsAAeSwttJnm30~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2RrKq%2FTcu%2FStwH3DTrLTJApalW0oYDOsfi3E8RYL%2FQncMOvMRr3s5GkbmaoChJ21ag8ERn1WHYFABymq3S7d0wkzHGXYMC9wlhPZSM2Y98UOLDxaOrLvsZ%2FnxigIJhzWti8T02Hx4Sd9UTogPUsAFwNCMvAvueaR%2F9QxxD4t4FQKU439ZoqnYEmpVu2mCK%2BCOsf21QbPlM1DCVYvnYpv--xuH%2FLNsaeCwRTGIpRkYTBcxS40f0d0sNKMyGjLILf17LkMQNXwSGAwtgpWcn1yn%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>$248.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168239?_skw=PSA+10&amp;hash=item2fca38932f:g:-8kAAeSweUdnm33~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk9pEl8V65OWjQnwipq7QFCSU60FlN3W6yL%2FdZIK0rCmSZohfi3uG%2BXSIX3zexITxiIGFxjQ7Xk7xEQnPgiS58UoumyJFdP62gA0TqJ6F9p5ERZHYL0tSp%2BKi2QS%2FlEBYSSxxbS6CAFOhSy%2BHyC5xupJ2mXT%2Ff67Do3pROHs8QGLLdtYqi3Ws80ErhSoWTjUMaXZ4kUfQ3xOyKHYcMnbY5L6%2F2Uc26oh3d5%2F627RIZVWLEUM456BzmWBip0okD%2FCJ91bbCZx%2F9rmIGasIymErjc%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bowman</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Red Refractor</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Jasson Dominguez</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>$304.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/365371278155?_skw=PSA+10&amp;epid=21067696334&amp;hash=item5511d3434b:g:8tsAAOSwUl1nm8xL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkEpfX5du7Ov2ePw%2BxQtP%2FDLwkSyu6cniORnhJW1T%2BEWb82D%2FE0l30sTaiYQbhhqkchlRA03oI4kVGsCS%2FPWwgHH4cL6F5KARuISciaDxwUzltWuy82pPY%2Fr6vWywo1z%2Bk9SnzE9vj7RGJ3C2--MRwQqBrQM8PdRuMcpJCLTzYNFheFe4RQVwVFIobpe8Pq%2FKMj7ILHvMK5OvWkyVpebjQr9NmkkCFsmPcDr%2BbG9KNh3VLcRoLbnCXDJ8IZADbaZejf5J1h3wja26ZK9KVQ8PDK%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Topps Triple Threads</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Vladimir Guerrero, Juan González, Tim Raines</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>$383.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/365371282673?_skw=PSA+10&amp;epid=24055955158&amp;hash=item5511d354f1:g:7MQAAOSwW4Fnm81~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnHRLOzOeCOtY18jaqohRfKdoKre%2FuM7VryyxnQkCoWNmNLbHsvB4Ut3Xw7Zwk50K1iV1%2BoY8H7JXP6tbWaPGT%2FRGNfk7%2F5KEnoFqlGGo4M8YQiHyFePt0ROU6LagDJcBz4oY5w7E%2B0sWHCuaYahbjYUaaN1nf6Ngo4rKQrDjYKHCUuTHf9uiJzhVfFOx9Vnhbu7%2FRAl9rYwLCiNUetMR0nNsiokDT9hNYAI2f1aJbLpQ%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Donruss</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Bo Jackson</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>$178.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/387875729174?_skw=PSA+10&amp;epid=18055550316&amp;hash=item5a4f31ef16:g:sEcAAOSwVC1nm82r&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnfsNFdSenRb%2BJJn9fqtCEwdIzQQgKeXizUmRKyYMa1nqDskHmLuQwwZDzXR07QtWI6os9maEciz1XLF84qF81kkwHmSqoeCmS3T0MbO8hHy3QL%2BFMU2ZgUMzTUHqFwkOIGd7F7A8Oi2Ifg2uZz%2B0LABy%2BCBjmSlA2gQyGnYixPJedF7vpJosLFxEKZdLjo8JKoZXrlkYXm66e0H%2FOTx3QtXsBOG1ppiawyYZD0u5%2FBg4hkw8T9L1GVHbQekkswom28cJ1F3cYrkAvyScvFepKG%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>$170.18</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168574?_skw=PSA+10&amp;hash=item2fca38947e:g:9zkAAeSw~oJnm34T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmfwPCbmZcjwa9m7AExXY1htqe6BdwluzeEr29RvG6oR3QBsDH8zPHJL2Os7KyaHRAn171e2Xo5InYwkknXD8w4HJH9JlWd8gDwHDqkvqBg1HTTWdiCxOyvvhyEZUpFuLyvpJ%2BRqHuB6EMC6q%2FLE%2Fbmm8IEpKdw6dKLN63LkczlSsfQcjoVZafQGQYclr3A%2FWYjVjpZBlMs0XrMa%2FVsJiIAbwLcql2ForCvdiR9kbF0s%2Bn6iZjEPqVkhzpOYqsG%2FtXftGwMq4AduAu1OeX7MJ3k%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1983-84</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Phil Housley</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>$571.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/365371450096?_skw=PSA+10&amp;epid=3056566342&amp;hash=item5511d5e2f0:g:hxIAAOSwgphnm~9L&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgK5MeJZ%2FLDE0QeOqGt3CULN9mvnF%2F7TXR3wqasmAndSQ1vhtSCpEoasr9HCtACQ8WtL7qhh7O%2FlnIJplJSfQwr%2BXPt08Yb8XU2hi3lgqaiqH8Vt%2B0N3cJxSRWHF%2FV5mOxpApZVZAjucZtFt9meK1Kxr85OT5j7MjH1vFV3x4mjUhkp5cABtIQcrrlCbb0p%2B%2BlPjXa7HvTE76eQotte6JxXgoIxqjhipufRot1klEZUegwCcBeoRtyCZaO6smzP4a19bf2x0%2FoEGp8povFUWTr%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>$193.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256165385?_skw=PSA+10&amp;hash=item2fca388809:g:-o8AAeSwoTZnm313&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnLK2DfswzapW0tOFc6vHXqt6wOvvjZJ4hmoenuWLCpnZIhNeh13RB5dY%2FnhfzH%2B0BOT2Vgw9CYAv41AvV4aQEY6eR4ElDgguaqG%2BBKjNYGWgfeV%2BxRyTk8jyFnecj%2BQMQfv0UdOUNB8sN9o%2FC%2BNpx60VHOjD%2F7VeQYptPMZjvDCvEPqEET%2BWJNvx9gDy6W3x4cZKMx4aDRuTaMRToZTgqVyG5oOq%2BXSrtlVHGNCBTgenKkyX7el30X0eyQF%2FzMjpOMnAmXYZfYTn99B8GJ%2FNtP%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Upper Deck Series 2 - [Base] - Swagnificent</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Swagnificent</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>William Nylander</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>$231.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/256747404246?_skw=PSA+10&amp;epid=20068470359&amp;hash=item3bc7567bd6:g:eJkAAOSwOjlnWe-a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkLEr2GCujQlGdPqDYW5kKE9yyzNM8ooPL%2FlU0gtrbNFqPqgctQfg%2Fu0Eb8jGj%2BRmELcqjLtaafQk2YyGusdT7IOSB%2Bs5xlNWLkVGsIHhZ%2F7deNyUvYbm3seGeQXNtvPlVofhgetINtFvB8AFYvL3SdPfKaqa3XtLfbn10gG4N56JV3ukdMWjDrDk8fP3eGN9UEzs6R5STQQggQ2uzha3VpEY9sDbUeU7CdRWYUnYXK6A%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>$249.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170984?_skw=PSA+10&amp;hash=item2fca389de8:g:8pUAAeSw6~Fnm34A&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmaQGqZTHFhAx%2B1QbapSwaDMsdMD%2BTyScx55glCcBKrQL%2BGpHFZxnfwvdqADDiz1CX9ViZU06r%2BkL%2FYHHx8%2FyRLWVVm2lcotHmjxqxxAEOfNKkLcxh%2BdKbRv8Bn4BWtuDp9A7ZB91AbpOyMhkM78pC01vAswCyn5P8PfNRzk6rEC5%2B0K4zJKayqajghCfrGBEMPsiO5twFFHmswck7Vv%2BwlkZiHJAflAWaz517uUdBoUA%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>$181.72</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170829?_skw=PSA+10&amp;hash=item2fca389d4d:g:9LUAAeSwe~Bnm34v&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQm%2FuDpYO0RGVgpYfe%2BcyRE4EH7idvHAsGf2mtUY%2FnKn5eSfDIF2lvMWmXWvqx9xoR%2BOjyP%2Blhy6GjZ8Jl%2FYqtr1AqtVFRGhyFEvZAdKY1d6nn9opthdcssLHLKAoYOUGxfSgf%2BVfvM3tZHpVp4AEf2c8Z3Nsxg6Lrqm%2BrRpxyqRJuTdPpo%2FGP6eXtNV5D2cbiiflWns7G3sHb83eFAPQp7tfE4HXBF5yCusPbUsYSDonN6rBrUZFiY0FVLkrcB7C2kulD1Kbf%2Bttdt6npf70W%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>$461.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168100?_skw=PSA+10&amp;hash=item2fca3892a4:g:9bwAAeSwzvFnm33~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlU%2F9UZq0tWmeyK8COXvRuPJ9bw6w7gjlJmwwizoVFrnUb5vCRp00NJlOByzv%2Bp4hbMcw6eX5pzAJOVILupN7dgFVgq8gHt81vnItgkfu7uSIP8TE4OCfmUIGBHkOb%2F887cbznB0rlY6WA9KcCkOls6gu0S1ty%2F9uKO1uRSlN3kwk0xCebYqzeuIOG1WSoQOJ6c%2B8UG%2B3oNJ2S%2BdVF4M2JysR3EqTGsyEHbdMm3Z8e2Rg%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>$159.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170863?_skw=PSA+10&amp;hash=item2fca389d6f:g:74AAAeSwt~xnm34I&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlduRYyNzsrVoe%2BfHJYR1uISV9MJHN0sHznQ4K%2B1wBTB46KnHLQEXM7AQOcoicRZW8sxpc9d0q9NAwrmPVku%2BJqhWvkfIzdOe17KG%2F3bBFbhEw7UymcY3JuQWSQtow4fRXlIYJz%2Fmur6YyQrVNCY8bbN1ocbSbG1%2FQAiU4h4EoMwQFDPQS1LTFBWgxvTMEpkGjONA00xCmCv8tpkffnlqGJVWIU4AkJNTOn%2BVaLaggZBg%3D%3D%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>$156.73</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256171056?_skw=PSA+10&amp;hash=item2fca389e30:g:9cwAAeSwm-Bnm346&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlPewTheGZFv2dJQgLFWp%2BFv90QA8k%2BqC3sgeFwYyDIlDKXnkq9UprmSbXKunYDUE4BALN%2B2srsVx3pRRZFJhmuN4dC2LbQuFFmv9lS3hqqznfF1OEDyELIxfoOs8zWOX9owvpGLmjvq6Hzb1p4JqgLl4DQbVqYtBrdB0tpwQveZtEKsaJSjaHvtiq78dtLe19ARSSkBqVjr%2Fxm9bKpVQtcVTpSfhZyi0dmillprdopUXlwkDQqSZTauOhPW0FVtowgHmbj%2F7RCycanfIT4N%2Fzj%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>$307.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170625?_skw=PSA+10&amp;hash=item2fca389c81:g:9wEAAeSwnKlnm32H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlVM8GPCqVlHeElhUS56GFBWN8jBLx6%2BP0XgguKqRj3IeIjmU%2BWHY%2B1SgDwXgYXIChb72YLGbKtRb7Ftuj9ad17WoB7L%2B3apDgi%2FkvpFv%2FUiFEBnxofP8Ax4N%2BkjkDwsDiwfu%2BBPjTSOjsNfIoAj8%2F3IPWczDCpTwHPIJJ0P2QsGLDSufMSbzfhj9qRPeigPG3hlQkG1%2FgAfZYLqV%2By9t3%2BJXNmrrUFlphvNYldINaBoxmQ%2FFjWgpzPX8HyoRE%2FSvsRziwHLmx%2ByYSxboXDnjjk%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>$329.89</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256171459?_skw=PSA+10&amp;hash=item2fca389fc3:g:-q4AAeSwwxJnm34p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnTUXcpW7y4gf1tisRvV2%2FJn2Pk%2BX4O%2BlELLD1VtMPpFbh%2BJ4oJHIAZ3V%2BO8%2FXv7a%2Fy5qF9aRydgqpgfqhR3UsVWceYc8ULy%2FEYTgNS3oyrU3F9PqCxEpfkIbu7w0bs25p%2FLxlUJTtp%2BO7kHhhPfnDzt0lqwfIa5HVV%2BqVIOHURdG00ywjs6aOfapAiw6PIai9%2BVaqYw%2FDhtyIOquyEDHjoWWLw6wQFA3jT1jCWdLIT6IoXyXhz59AwmnscL9i6fasbg5T2W5%2FWgtvc6y4S0vvp%7Ctkp%3ABk9SR6DYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>$165.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256880583?_skw=PSA+10&amp;hash=item2fca4371c7:g:2rkAAOSwdnFnm~DB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlOdXZGT1zRPHYk4Q0utaaMWS5RWB2URtmEXwr9HxQZloIUjtDL1md%2F%2BGkZlOpTqUUf15JlHIRNywKTz3G8lIbq1vxhde99HRdkrOeNyfj8%2F64Yfgy0e19Q0ClSQDa8NSscxZp7TytBizF33dDFVsequ3avrM%2FBD5v3j27tg73GRn6k0NT7HZhcfWv6xE2B%2FYMjY2gd1O45lriYHoTJ2GPyeTEza7ubP5fw%2BoFkZUP7RQ%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Alexander Ovechkin</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>$164.99</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226580060747?_skw=PSA+10&amp;epid=19057417185&amp;hash=item34c1395a4b:g:hVgAAOSwaQpnoNIe&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl57Pp5sk4Ob4wteZpgUK%2B4N4NmfxutaiSNVYiAO0nBAVtXBxelMMIUvOA2YJRytBQz8g9jKnc1GyqvEsWtf6aIHr8JNBdS%2BVQXhyHpLuJskooE3opQl%2Bvwpec02BVXkazQ2eV47a%2BBa3AxNphuyMwoKuQqT37JwJMpjSExKXeYAWArrTyqvxkenZYgi6RjSKO3fYMgfWG4qFNvlucsrFLbuS4yJ5sgDxlvrCGWzlYVGblR%2BKshp0eSmfnaCghtSVRoHEGvo8w6x5WV9bZIMkWZ%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>$150.62</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167152?_skw=PSA+10&amp;hash=item2fca388ef0:g:A6sAAeSwO3Nnm34B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnoDMai3358aiuMZyHUZmpzF7svkS%2Fb6I%2FcS2AWFSinSlUNZJnWkbbbg04vRBv34hZP7snFcr5NG1LdCBWA8hidRT--AIXB4e91DLKcJZax1AyKGhmxq7UIIg2FWev98g90h3jgeq24UiwRb6yyRs%2FBPWalJNXgIBrcnfRVsKXVfxtGk21EliqKYsOYETW1ZD7uD%2FzlK9HlLmJMoXUW5fQtCHfbmtuStc88FhNkmelPkQ%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>$391.39</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170176?_skw=PSA+10&amp;hash=item2fca389ac0:g:7RkAAeSwv-tnm32D&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm8GrIDWXKzJI4lbwA67ba0iBDK%2Bt%2Bptf92SgDoFvbDiKmQBDYNGlvUvkHnCi0sKH12CISsKq4UlPXSIKKz9McRYCMuI7DHJD1jhyyBQqNMnKp3BBv7ISiDw4g7n3xdsyuteFbFhH5nvjcmfGnWs1jJUqBOnhb9P26%2FJGoIiZAbNVAC%2FKyNSxkTVJVfXugJxmnI%2FJ9PpP1GZq0EcVXGreiDayi11qhmZ8tE9KdxKV6jPij3tcmYi71UUM4WjJRZRolpD%2BQnrh8TiP5XL3d1pV%2Fl%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>$218.76</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167796?_skw=PSA+10&amp;hash=item2fca389174:g:~LwAAeSwaPpnm347&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2F0QPqUBVgKBx%2B%2FUmmfbSNs88xMdsx7XQExWzyMpzB4%2BA5zluP8MVp385zwKXncaqhUx3%2Fm4ZwO8Rj5Q8IBOfFZLRLehS25Kvy5FsqJydYQc28YaW4G6laCBgyKBXg%2FWQJWJXz4N4h4rOhvfTbLZBLFnBxEgvOJIq4wJtIi0HXe3PWZ26cyWmSy8xg%2FCmUyTiTZiaDY9pYdKEnnMGiD81s5Re4D%2F3H1lyEMAyRnLwzVRnJTen3Zfff9Yliz30vQTec%2BgUzBzGmMVxNCSzhe6EH%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>$376.71</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167584?_skw=PSA+10&amp;hash=item2fca3890a0:g:8j0AAeSwRhxnm33K&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlpq2nHj6k4Ez5V5Z6XFkhFLuzTLSfZ4RxQCcqvZ%2FqZwst0lHD0dXoOe7C%2FPSvYl7diHOSHqLBzPgDXhj6zSgsv1OXjd704hABVkiB%2BvKOkCiCFpMCpPljaIcWV%2Fkn%2F%2Bk3ECw%2BAtOibvp6X7Dhj2fIyaciK95guxEWSqTcqXJIBpKGbOqt2onEJa2fMfPajBcprIWLEkHlTe2vQ3ehwo7J%2FhuogwrgauZ%2F1gC576HEVbezqe%2FIUnexYrlUcMPyIdiyAgnEeSjDVt4DoFSMWOFe7%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>$241.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168973?_skw=PSA+10&amp;hash=item2fca38960d:g:8KwAAeSw7Ihnm32Q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvMlStqhDfZOt%2BcFwdKt4rm6LNOtIlNEngFbl4yAkEtGAnUaB3pFNlddUzfzaWRn7GUs%2B2YvThixG8sZLVeZB0PbAn4TjvcNqPqf3pzobYkGMQVjpwG4o4IWPZaGOPJU8cIh0C9j1cubreK%2FY07FIP9ql2wJw%2Bmbl4bJG9Kad5MU2v7epxyEh%2Bu0G5q%2BlS5MCaAi6hwGOVJpz8oNa3k2DGUxglNL1cHq8Jmbjtyepj4g%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>$622.03</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167474?_skw=PSA+10&amp;hash=item2fca389032:g:9YwAAeSwEidnm317&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkC9%2BD7iDODLIKRzxye%2Bm%2FAkTApsgPO7YDoRKZTSWgSyiCI%2FaGKZKcYcUEMXMH2qjDBYnt3EIl3PLxDWYhm42KrzwA5UD4lnbEQQn%2BsJBSnCZVNfi%2BDpoaSAgdTuUPZHpZb3G4X1B%2FlrESq1UGBFyNHYkPHWCQ%2BpK40yj0lA9TF4GbFzVPMHLcKAvwYqsYPgaJaB0SP8T%2BN1CXtzabQaokkxpJsugJehHuvpFAUlOs%2BHg%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>$220.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256168592?_skw=PSA+10&amp;hash=item2fca389490:g:9ykAAeSwgbZnm34p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmYS6nuhIYpOO68Y%2Fxy1LzSp%2Bwa%2Fb44OQT%2BpsO308x%2BxFHXkMxISA7znKIuM7UWo8Vl1I0hOfMd7V378tGHY4SZq9Bs0xWR%2FiOTlkGa48urKlfyodJDN56Lnt7xAmHxJmM6w6KO1vSummJp5Qu5L0XqCDFnh99LQ13Odzo2cyyGKgnQBTH1FmVfzwsh%2FDAunk%2Fmef%2BJ3GkZG1rMbZO%2FCdL8P7Qst4SgnvK6a0bwWZtuj6NOdBSMohYNDmzJ5Kmp%2FNL4tQXIFujK1Hu12mt7yRDa%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>$241.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256165714?_skw=PSA+10&amp;hash=item2fca388952:g:9xkAAeSw~oJnm34E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9tlnlLcZSTvfeu9500XhmRyQTKC2KMA5o3lyrdGmgAbLJckM5KAMZVg%2FtnfQhjQODZka0mFzZj5c09PYg%2BYAkgqz2yEWDxgmDiU1jrqI3Yg13CSEmZ5qCJgTeDTsQJLoV3gmTj8nRFOrjFNNSjRrnTgaadyXY%2FRdzI%2Fohjzry0o3UHKrm1UzZq0IPg13quU8UlaKx9zPS2FqnC09zthjopbuXe1UbEqk3Sz%2FAjg8KJQ%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SP Authentic - [Base]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>T.J. Oshie</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>$396.10</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/235827876921?_skw=PSA+10&amp;var=536223008700&amp;epid=24056561340&amp;hash=item36e86fd439:g:VAUAAOSw355nM36j&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmQL5M99X2dXGKNfNsqHXqphP6XtJN6nshDdsSdMu%2FLv9BXHP4dhNspbRgGLHk4MH%2F0CAE%2BEF0y873UmlGiecYhPBBukfPlWaQtok5FikITBT0dBzWTNpA6JmJv0jdbdaOURhBP3%2BwZ3SjU4Z4KU6M08aNs%2Bo9yhvm1GBiUMpnQK%2Fcozu01TNo3LMROsXVTKrifj6K5xHRTZ0Me01HdHScnqdl8LNiNcp1AjyKbOfxkKA%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1990-91</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Pro Set</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Jaromir Jagr</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>$181.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/135409389712?_skw=PSA+10&amp;epid=5056494708&amp;hash=item1f87075090:g:LHwAAOSwcHFnKV3x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm00FcYXnDGrnCA30%2BGM5sYePOozWlmNwEQKeXzx87LYVukX%2Blbi%2FdpwTG85jr%2FZAp7%2B13HkdgReK2IxQ8cmHo4sRMjoCI2vGcTJSr9OCzTzat4LfD2yTcUNG7349BK6ge7nXPSVOwgY4yv3yJdKvyElF04uMEe93A8LmH6II0Wm9mv6dIWk99fSq4gDydzJ39%2FUByC5nk4%2BPYDDPefbCLiZgf%2BGBSnRAYUpSR9w91t3g%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>$213.17</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256167893?_skw=PSA+10&amp;hash=item2fca3891d5:g:AmEAAeSwoypnm32R&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkOr0B4Es8yJHaL%2BWCSS1yuNRrZ29kgzmXB6hGfaqR7LjkGv2VKV2kmuHalT2xgnp5esuxhbeQTaQ%2BjmE6eCCiDyfx%2BvdJS7W5CgQ19p5ePJpA%2BbYNUuhWvUiEZYXu3payaOrbvxXZDw%2B05Dz5uXNW2VGUMfi7joGCUODjhsS4RRsXee%2FazsGkCWFNS0rlP8eZ0IPVWFOTB1aqDHswzzZ624kotnm%2B%2FxVkEpy%2FOK0dz8rv1HWLXnSAcecMFms1L2wA6lejLKNVoYbIwL53eoIK%2F%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>$1,712.33</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256171320?_skw=PSA+10&amp;hash=item2fca389f38:g:8cgAAeSwfkVnm34u&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlL%2B8jbsZ%2BYlqYgXeJwbxPEHVWv6ejTwjo4%2FHrXeLCyI943m2Zky2wHT7ekiF%2F0Qwxv%2FckjisQN%2BsE1UXr6N1SMFLl0iXdjyDZcuwg%2BTa%2B4g1T0PXvR6YiXyh1RDPEWSuVMKQD5bIe4c%2FHBWEF%2FfNHmJFsYgUdEf%2B3XSYxZi1MOhwxwxvT294V8HQg1jZyAvxJALe6KXwSKA1LwDHymwUdKSxUcVJAztfpvIQi1iFZ6Kg%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>$155.51</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256171421?_skw=PSA+10&amp;hash=item2fca389f9d:g:-eQAAeSw4ktnm33E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl6fj0Ox4%2BhkMAuJ0ygJGqFpd3AEd%2BfrAeckVdPUDKPoqIT0ScdOMOdB4ZklIyeOzkYmas7nogi9bL5Xe%2Fae9xYOqpN6lLLdKrMahVMyS0lBcvo1iY5ifSPYisaAKDssLhhmc8z7cCmMtnN9hCxbIiYGKb8dlWfm1dwXvVsHXz1pW9Wj2bIZXz1NNurPbNkmh44Bgl18ROiPnu1DwTt9dxBMAZUGMVUqynhWc8Hh3IbSQ%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1971-72</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Marcel Dionne</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>$247.50</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/266685829828?_skw=PSA+10&amp;epid=11056559979&amp;hash=item3e17b6d2c4:g:AC0AAOSwmuRl1qTD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmATPyD8hlFxajiHKxCx%2BXKHT0%2FI4JRxw2neKhUkKSvnDMXN5jKU%2BbASa7YT%2BQDK09TYssO3SY2q5LN%2Fi3Q6PU7OzMXBzxA9tetXGcjibmlcszY4%2By5dhT1yaNql%2Bg98i5g7cKiOMxqrbsYiAHPXUKc5Gzs%2BSNWXcqaTLqG%2BV4oxyt42VOYn6ebvzPKU08mZX%2FTYNr7vkjthP8aq0vh1auhAMypFbmJXrU7zRqWFI%2BlGQ%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>$480.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256170912?_skw=PSA+10&amp;hash=item2fca389da0:g:71UAAeSwbUNnm32Q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2BPxGeb2t%2FQYTEA7Ydq%2Fb%2Bsq%2BWGFGSd3KZZk5ILvoS%2F3d5dafZVy59pb7Za7Fna5XEcyyiJ7KVWRls%2FEuJEWJskTTX18UDaGx6evmumhvYjnkv4Z7EDqvVNr1M9rAR2snkMA2EOuY7I3407214CCi77d5vHbi60OE2GldVz2AbDjG5Ela05JFTkC1gfCW%2FNvii%2B9vKhy7dQvNdDg3btVRUcEOzpBNrTMMGBItjthPNnne29gQklf0RbpJsbDSZ55MoZUtoXf%2F91tk2oadWvHNt%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>$167.39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256880630?_skw=PSA+10&amp;hash=item2fca4371f6:g:JfQAAOSwST1nm~Em&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlggJ6UgkaHWFU79p2w7c37vGMnHnLUjCT8RqlC%2FlDPc%2B%2FQPJJBAGyc6jYORD0jzecY7W08znV5aBzKvUrEMSnzPj7BIIgnpEBLgafQUG41PsaOSULb25wXBysSPwnPuilmhaEq1DZ5AS%2FHl%2BEW4QIsh0SrCsRvzpfHEQjmdYIoOYJKv4KGPL2lcV%2FlblPSrAePvMhCtP9tTrYP1WTFXHCGXJxpN1HD3tYO8aqO33CKlA%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Upper Deck Series 1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Dustin Wolf</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>$167.74</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226580706687?_skw=PSA+10&amp;hash=item34c143357f:g:WmwAAOSwYjdnoVuG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmORsmQ3VCOIyoGG7wojaaUShPlockIZXKY%2B1QiPjRS5k3wL2g8rheoy%2Fb9DYZe6ZNf4RNFqG8mIx6FU%2FUqpa1XkuaEYwwqWhTyayx98UewL5LFux6EC8%2FtMhlZ4knLLQYiiqwD6Ix%2FnGW5fXyk9Q%2BbYq%2BqBtO485OEBjEsSvD9EyaD1%2BNPR8IgYVb8i%2F08hGdEoBTv841ze9G9Bqv%2FOMExSZ9dYyJJbb5EZoQRPJ%2BxsMC5SBUFwrX1wL1lVos8Sy2SHKcLs5RCaAWGVB5GCkRT%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Connor Hellebuyck</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/196993309443?_skw=PSA+10&amp;epid=14056486826&amp;hash=item2dddb75b03:g:F-4AAOSw2yFno4pC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnB39mwLswo6SyLNaei%2FRGMaeHGC3pdtuvf3IkM6PCVoqb6xYN7W790SW2cd0fbSXjaD2ZIVz2MTYfQxBsnkQnPEqTWBCqWMOL9YJwfLye2QybNnLswVrotYPv4hwxeKwVUu4k5qeCOA6bvFeQt3PY5e2ft3H3DqdZ%2FoUNEMaO8DPtXIv4qlE7ZG23bSDbBbrw9vVSU0Q7KuKE%2B8rbsLRrfdaTE5oq6O5VVS%2F6KHgFi23Kcz0l54Mqp2I0LAxGRi8QJnmt1jp2v3GsMISlPx%2F3W%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>$156.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256681660?_skw=PSA+10&amp;hash=item2fca4068bc:g:APkAAeSwaEJnm9Eo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl0ljyHsMXYpZOHTo5NNAS%2BvgCe661hnPibRCGhYxw6zRBkflfCcPbzeuD%2BWoUMPG61p10S72zxBfezttUMOb8C08QjLOrU5jln2vXcSKfJIZ8XIfDHxqhWzxGbHsqu72hwr23XtMcPXtqutE3Mhia%2FfCHtXo5zFuC3m5r%2FumI2O%2BplpEueCDp5OncZ4VCA%2B0iHCU%2B2D1h8D6sa5iY%2B6DaJW9sX6j7m1tOLzKyfHjp%2BYGY%2BLhy8lwT68PKFuWXOGtn1NmMvIE8QErwU%2B93iL1Lk%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2022-23</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SEE TITLE</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SEE TITLE</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>$559.12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/256805685164?_skw=PSA+10&amp;hash=item3bcacfc7ac:g:buQAAOSw~DNnowNl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlZwZN42T6EwH3deJCmcI9beFQ3PJ0a0Oh%2F8m9Lhuee0WC8SLxKc5VmUSLb23mcmReToZUTLrKlAiPehMEo7SgJf%2BwLhaLuOplB%2BKGq5WLQE2Z5BiYZ5NvzjOwNq3JV8OnCkj4Yvk39vyuc7Mt8YFvNO0eEgZsyKSBHmDHEcD1VGh3EgVPMmkkBaaQyo%2FyzhJvUXyrHPpl0YF%2FZSzBQxw4LHZK28%2BF%2BQe0UNaquxB0Hhw%3D%3D%7Ctkp%3ABk9SR6LYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Class 1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Alexander Ovechkin</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>$405.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/316177145120?_skw=PSA+10&amp;hash=item499da05d20:g:260AAOSwG9xnkXM1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk2LKKHU%2BT%2Bmvy9659YCe0P%2BnGLSgbuOXOBbI3YBTiWYUU44LuUa%2FAI30pNMzxhzLoZHJhMy%2FwrcAR0kLKPGbZoJulHIQRL1E8snvfyS3ge%2FRh5fN6oLabksVhpt8QG%2F7L8CYEFm%2BtFpv4disVEzvAP4gFhsFKyFlg0%2BO1vQ2TFEKIBit8fa3mVsYbFtPcnsjpic6ssq%2FP571dPf9%2BrYATsZW0q48w1a1lwniH3%2F8yfiQ%3D%3D%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bowman Draft Picks &amp; Prospects</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Aaron Judge</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>$545.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/326398442471?_skw=PSA+10&amp;epid=27055973364&amp;hash=item4bfedcfbe7:g:1~0AAOSwbmlnexRh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmflHZ7ZfKWQuDR0m3zmTr5CMFCBHxl4Nxp7KhH7ODWsttzstb4%2Bs6%2B%2BZU9GSURedQ2k4YdaSP%2FqaWk2x5tQKINf%2B7h8URWI%2FqgPSSW1kMOBWABgvFi00OAO0OR1OWqIJHS85CASrGUupq9LonQFp%2BsIekkTc%2FYdk9bl7tb9cbq%2FCyXwPuhykeiZ2Ox1I%2BSWeTZokatTqsE%2BpRBR26%2BSQn0fs5xX66iRxZV8xJej71ARMUMzT%2FcS0BXWsGQ5dqxcJ4YzevwSHzHxd3NePkYrs5W%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1987-88</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Wayne Gretzky</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>$1,600.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/196982663737?_skw=PSA+10&amp;epid=2327532548&amp;hash=item2ddd14ea39:g:PHcAAOSwSOBjdaH5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk888kKbiKxks2ay%2FU0g%2BoH5lc51B%2BlnT0HWnGZJoeQxv16WhzOiQdNKRYyJYsP0mHu0zmSHTr5CbJ5%2BNXnoH40s1thgag53ReVzeHjGyOIBBYvX%2FbFgnx1gbUe5BRWJ%2Fryiy3a%2BL1a7BexrYKOS5yx8p4XWFrMl7Ih629TfNOg13xAU%2Fr8dsDFSOHqDqAdX0XM%2BByXPdRPCOS4GBKyjUlQq%2B%2FFz4Bb9i7%2F70zVlWqGYBV0XNxHdu3t8FA6KQxfiLz%2BPSgSZt6FhWuwa8C1muFD%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee Platinum</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Seismic Gold</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Matthew Poitras</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>$192.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/196995338528?_skw=PSA+10&amp;hash=item2dddd65120:g:ChsAAOSwCMtnpNQw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKllanLQ22mzwkYY9yRWm0tESyWVeo56aznWhFiAYbB%2BsCTnAj%2F3bPaMiOjQB0ySXcC4h2CFKVC72LIj9IFzH7HHgXFikzvlUkJIFnsUqZF7y8xM93tQcoBB5u8d9UZw5DFTvfkH9sxYz%2BDzLgTzz2HhQ77vshzub1VZqrzdCGXQ6TPJzsKOWs9lGQ1jIRYljRbIaIN1evk5EV1U%2BhvUPyJknsqAfGKvrBEDi26fiURVbg%3D%3D%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Mason Lohrei</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>$314.51</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/156675593125?_skw=PSA+10&amp;hash=item247a97d3a5:g:xS4AAOSw5GNno~5X&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnQerCr0Wd0Xv5%2BL9GI5vWMRaw4iRB5%2FK3ZbgZT%2Fo7%2Fqka8ew7oVLoCt4z%2B1QJrLy%2FezNg8oJPlTX8i0F%2FsWC8E%2FuL0109HNMb8LSUE2dmfpMQK%2FnKtofP%2B4N6xBEhxEEuXjOiHJBBAolLU0FjW%2FJoZzkeQgVMAQzgYGqPSvVVnGSaI0vKGnsUxWLPwgrAHeCJxm6vrgFpyX2cV%2FLTzVM7kMNtIy1N0bTKU0TPyxBH3RWXJEa0COouINZqKTkw70EWkpMQmg29AIpTMQnFV0q2%2B%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Upper Deck Game Dated Moments</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Gavin McKenna</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>$174.72</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/395854699734?_skw=PSA+10&amp;hash=item5c2ac75cd6:g:kgEAAOSwEGtnJNnu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlruv3dnGnAX0uhlp3xRjXH%2BNo3Zv8fupXq%2FpbdrmCA76HS2klRaj5hQOAiEigP0f6EIvYpNLudCd0qKOMYNs5KmFZ89QTGZFZK%2BC0jQ7JDOpJT09W8yU1%2FTq2VgobqVuzpvw414113P3PcevQy34mFOttem9C63aL2YMubOfJrnkOEjH%2Fb2U6bd0626mY2Hv4qTgr3XDLXsaL9eTV94shxoakzc4TI5jqeHHHA4WVQA9qtkGzBKq1QUjuCuqualI%2F0%2FMbppZfCcX2Y5HZUaKl2%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2022-23</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Black &amp; White</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Kirill Marchenko</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>$244.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/395537204400?_skw=PSA+10&amp;hash=item5c17dac4b0:g:L5QAAOSw7PFml0EO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnRuc8qVl6xMNz1ifWjLkRcakWsNuLqI2pJk1aizjWwVnvNuA8n%2Fn8ahXQGOkrJLBYy2yeFSWaZKksPs%2BFzt%2Ft99iE9s2baimRtIH5K06kb0nFFEFzc2M3H85gYwZwHThgWvQBVQUEk2osSDveRqGp2sbJUqNw7S7RwSkIXly63QWGlNhHlFQUBs9EH84FNXst8cFS3PU3ARlo4ngrrSAgooYL15tnU4%2Ftt%2FVkPrnqkvQ%3D%3D%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Topps Finest</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Green Refractor</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Jasson Dominguez</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>$295.00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/326345746435?_skw=PSA+10&amp;epid=8070881918&amp;hash=item4bfbb8e803:g:OAEAAOSwomJnPRUV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmxK%2BkJcrsRJOFc6LOeKXe60N4vM9eXnEOsW7PnR0BNQR8%2FqJqCXpbPfsgps3men7aBjuCKML7c3Xr1ysMFSpxToCUvdsCDvM9zUTuIl79XttaOakRh9V62tsJSOEb%2FQoqoy7OIekEMBsenaHWtGdC95js8P1Y%2F3GtMqkhhehrTJitwoV97I7lzsarucpcU33dtzUuxMNqSq6bg1SgqyIgER0gIiTJ8ahbYGkD1WtHtOLv1Xd0BuvBNTMtTJlt%2BxgdsRKABfLO5TOr%2B%2Bp2gjTBj%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1969-70</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Gary Doak</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>$495.00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/176725263330?_skw=PSA+10&amp;epid=13056475838&amp;hash=item2925a583e2:g:LLAAAOSwaq1nVZ2n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkGpi02vm8yvGP551GbArx7tPvPuGRf7yWaP%2B6ElnNOa7XtDNcHdl%2BGO5QaaBlmGwtDzIkekbFzta3wDXbKok%2FQ69MzQRao6bcAt9y1CK6AAqQ1rnDcZTetYhUcE9e4yFo4MlPmMWET8wB08NnTpLA95ylDVjOmBNitT4lxNYIZuKqVojcXbx70TrTHKxbMV2Mi5FanprR%2F6F0Y9%2Fha6syaozW8AnuL5Il00C%2Ff9d%2FWcw%3D%3D%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SP Game Used Edition</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Corey Crawford</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/326391793817?_skw=PSA+10&amp;epid=12060316658&amp;hash=item4bfe778899:g:YL0AAOSwmIdndsZ9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSh3pgOJz56SP240Ibmfvci5hBBTXUsXUliSHvJnMTNfOGn2zZqtudqkuPUvA7ZHdpl3lBIiju6rY4uhnr8udhTBjgO%2FFnHRqIitCy4iAhEp8K3kLU%2BQ0IvfS2VPIXlheTBX7ozDEUmgug5bUSjIoOxvyDlvlStNWBajNpkvHUeMqO1xe%2FZz7M7kVAEvhZx5lqF%2F%2Bw%2Bg7I3lSTB%2FQ%2Fpkym951m3FF0KzJWnGo00pgbByqVLiqvnJnpQTfJZOifaKLnebndPaMN1MnxZLnbYIm9%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Upper Deck Allure</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Blue Line</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Adam Fantilli</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226575883403?_skw=PSA+10&amp;epid=15070480672&amp;hash=item34c0f99c8b:g:yPgAAOSw87lnnXOF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqmNNlNBnrdMmvo1d7J9rHxYrSRW0ACgZ81ZLHvBdgIMwlrJ6JpTLkMyt0vkZG5e3A%2BBXhhYlK57PQ2JHGskdZ5NN7aiNxDZhwi4EsWc7UMqQfNcBo%2F1KNW4G2UVFrRZg70cHF8AcM2JbJp5A%2BlcSBRTtkaih7nn7t9ZszZYHUsC53rUkz4ymoHq7KBOJHXWlOS2R5FXJ8g9aDKD77U7t6dIdLwiAKmegPWlD%2BElQbdqSIBusIxLHK0zCxv7dBsfcwhh%2BUgQaDTP4AaQWNwcqx%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SP Authentic</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Jonathan Toews</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/116469542354?_skw=PSA+10&amp;epid=17056484240&amp;hash=item1b1e202dd2:g:pmsAAOSwEDxnpPbg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmlrESLbFXQiMbk%2FnLbi7Gyv0u2vONuO1273Nzv5545vZ8LPGIdkfDmY6t28uGA3RFUJqFsNdHNyWGD6%2FikhYGuO5YlTWBsj%2FK0x07OwxcbDMDc%2BoQK0hU7sYGIzhxpOYWgsARJ6dhqOqUJBfEP4ETnBdesdiXUWJ7mCT6tPaXxcftIxt12duXbUCunvJHes8Q70ekhjPk7qecbH25J6uf5yK4zEb6YH4%2BvWioFKGIuhQ%3D%3D%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Quinn Hughes</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>$152.71</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/235939144067?_skw=PSA+10&amp;hash=item36ef11a183:g:AZoAAOSwx2NnnmR~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlN0FxKL4wLOkni0hXNLU5jO70ccDKvYRv5jFBdw0DVYAjdiZHpeLvEFmYRR9xdHzDC%2FFiCqY25YlE2gAMUQrUD0EpEl8UAVjRGVBIJiFMcuehZiCVsxGWzOV2QhACitHJBQHY9g7G54A35yWx6Sb%2FT9po0FnGRcx9qJZgBvzVnyzSlrH%2FNiGQJv83QTBihXppaYRpbacuMHjdWCRQ48gLUXps71fl2TD5lYr3PINDYjKQ9GcYq2TgQqAZsXqwi53ADlxUS1Lbh7YVx%2F4UbUpnz%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Upper Deck Ice</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Ice Premieres</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Connor Bedard</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>$279.56</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226563741481?_skw=PSA+10&amp;hash=item34c0405729:g:YTEAAOSwvoFnlA4U&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn0X8ZzI8prU%2FDUDi3r0ikppE0vV5Dnmi4EkyKSrdFxzb0ZK%2BcliUExnrSBdcVV%2FuuAYoMqJ3NrGSw%2FdikzBRaSYJonnDK%2B32q15mwxwsFx3%2FKWCsWoN9S5z4Xi4NeCjIdgGQ%2Fz8Y7qh1JbWXulE6ezdTbC5ad%2BB3dK4xCtHluBTYDPiLXf0%2F5lXSbJyghTT8kAay5R0ffIaNVGD34M3hxZDbleB30RPxRxLvsrqJ2qQQA5%2BxNfhoaXkKLJUsWCD%2BYYrsLKgL%2B2ay57KfjlfZFG%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Black Finite Prizm</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Joonas Rask</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>$250.00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/375972239424?_skw=PSA+10&amp;epid=6056493817&amp;hash=item5789b11840:g:zVcAAOSwlrpnnIk9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnlFi9k2JEFXJ2LUOKvODZtj2KEsMcjq7CIte41xFrjCt6He6P8ELibtGsiWk4Hu%2Fd%2B7iSC5VSlNQc8XpiJIfShs2NTzRJjdTNaT%2BOWV2SwXNq%2FfmrSqu0ue7iUBDnKJqCM6o46tdc2jHiuwWLBPQ%2B%2FSAAgUOAd5MdorcLmnVGQ5KoxPpHhb78ayIAKYQgTtdGTTi%2FLJP3BpKi650xlbUvx9ZBtEy4bbZ5ldpin6vRzE7SpczdTssGz975Vco1T0AAdFMc1vrhe7N1QKZ6Zx621%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2022-23</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Upper Deck Black Diamond</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Full Logo 3 Autographs</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Lukas Dostal</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>$279.00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/146120413784?_skw=PSA+10&amp;epid=26062361543&amp;hash=item2205749258:g:CUoAAOSw1MZnF~1w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlYwFAwaBii1kwQgGrtyMPRFc0QXEHANYIJ7glclPH5YpNFnG30kSU8MgnHTrFvyif%2BXQpCdqgvWXpj57hbb0SZFz5bMxVGGzbglahKFllIoDR%2BjPNr%2BMEG7L3%2Fw8NryLYAPJFSb2yhoU2hcTVOPkdY2u1XN%2FLj2A5Q4cPMC%2BBmTu739xf15MT%2ByeTnNDPG1TbOV%2B5vImi2YQlb%2FaqaF%2BBDoodSL9xsNOzRRyctutOgxAkfnp01OVZCRwJjOlh6gDHDO%2BvBI7qzhL1GhpwqHMMP%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hockey-NHL</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Upper Deck MVP</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Breakthrough</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Alexander Ovechkin, Alex Ovechkin</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>$369.08</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/235750140435?_skw=PSA+10&amp;hash=item36e3cdaa13:g:QKEAAOSwCwJm6vsv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmjA3Og7%2FMhVUnyiGmDvX9td9%2BEmsVFO84l080vryLDQYVChtMPGh7nLf67SRSiQwTc%2BdnouD8qWviSEpGbgCXvgoBDp6Ht7HKIFaseNt1VSYa0BGirhN7x0fYnAFeS5Cge0qYKfftR3oEAig7b2OmtR%2Bqbf5tm7QMNsQ5u1XMzZeCp8911jJ5%2Bv5TO7PF9JZ80fEpHYpdATtHqNPJWKdT4fXNByX9VwTlCZcXO%2Fj8dg%2B08YYR9Uvr5W5UaQNKkCWAR8fBIOXNjMTD2hv2Amp4P%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2014-15</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Johnny Gaudreau</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>$175.00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/296981233427?_skw=PSA+10&amp;hash=item452575ff13:g:fK4AAOSwXDVnn6C6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUuRrLQzD45asdNXNGq98y8taCnWhJrANVy95asREwfmAImvWTAuO5SrpK1CSQ8xoujJhOMRjT3q1QN9GJdM8oinPwJofvrKYHlFEdPuTBs2g5Hzx0vyPcubshxjSv4fRqigisWuaaUHWr1U%2FWlzQyYB9lNo6GEPNwf0ATwWj8CiCvEpy1gvtk1zBGY7oNIzCQx91ov53iaFrdBUW3dpUnW8zF9pa5mKJQXEPQlldWHQ%3D%3D%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee Platinum</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Orange Rainbow</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Leon Draisaitl</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>$215.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/186898626783?_skw=PSA+10&amp;epid=9056555724&amp;hash=item2b8406b8df:g:rRYAAOSw2x9nibut&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkPi1e4T4FYcnr%2BUBqN%2FtqriWc2s0Jr1ob0LRIec7Z%2Br9M6wi%2FHdBFnT0%2BJ0Z2%2BYp8NyWNO4ytIyRhuM9AyLMrKCWqSN%2FzXtNMyULmzJ0qY7behq4q0THKNUWda2uye3Z55a9Ku%2BiAmBHuGX4bnbZj4nWM5b%2BAB1CfWKzbx03EBakqSHFf2ZbvOBNpUcoBuCXqk9tJ0IpSOSkchRTRrg2W0VX0s9Ib5uIfDMbqBoRRUZA%3D%3D%7Ctkp%3ABk9SR6TYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ruby Wave Prizm</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Luka Dončić</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>$899.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/156671230977?_skw=PSA+10&amp;epid=27056580569&amp;hash=item247a554401:g:XQsAAOSw4uBnoSVS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmMCUhb43IPr4MsNo%2BbFeIuhtFHGbiC9FehyXVPGnpAzG87mfqbJMVDdh6RfhXMI5PmtUC2gNNWr7XYAEs9TTy8pMDnsTWZ40Ntfti%2BiO7M5uZmH9xyORQ4AtBjVmWLjY26eyQ0Lay3JlQqbnOSjd8QEN8wAwogvvB%2B4Dxv0ECCioK5KrMfA9D5eTD%2BHRHQW1KUh4M0Iyym21tZMDvliN6NwtbDpZInbJEqSJBopeBzxp5Z%2Fdc8O33P3qQ8BTOe7ahzR8wAkQhmJmrx%2FYaeO9ke%7Ctkp%3ABk9SR6bYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Bowman Chrome</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Shohei Ohtani</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>$1,085.00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/326415407604?_skw=PSA+10&amp;epid=6055949164&amp;hash=item4bffdfd9f4:g:ys4AAOSw1GJnkWuS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmSz0nGi%2BazIsn89NC%2Ba%2F9Pd2U5bvjy9MoezWxJk4VWBEX5nD5c5RYc1E7hU0tR4nAskzmI0ikKMDDpy%2FBYlDGV4200%2Ffa2MsU4riuswL4VdkGeBxW5sP6qvfghssFU1ZSVX0lmDJt98GIWQupeYMDIjvz3%2F%2BpjMXx6JqzVyQUFWXUxR6CVoduJioW1TlioDNirvZ35FtKJV8j2nGleGhMbbnHOQRFdp2uxaLxvAxfcCw%3D%3D%7Ctkp%3ABk9SR6bYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Orange Foilboard</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Connor Bedard</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>$369.95</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/266674214018?_skw=PSA+10&amp;epid=15059316397&amp;hash=item3e17059482:g:LpkAAOSwq3tlzJ3n&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlee2GF%2Bdzi2TwDxbr177LAsZTlkXMX7BHWHDHvpwc52Abwzipu3%2FCymZzcoAKpZyepQqRGg6InePcZIYs52RTboYvG489Qc8In%2B9VuxPtzztbuUjxSVxT%2F2BxJOkU5%2FLoJKv%2FpzZKz2JYeUIYT%2FOLJjn1ggRU%2BeVJsFIZ1KlGgm5aJfHr4LnSHPYEaDW2Y9%2FkJUgTLlvb7yiwQnYUHt5AzqNg5FbcEo37aJ%2BFlSU0Tf2Ek6JVIiVX1XpNJ451JQQCNEHy8pWWyZuqy0xcai8TY%7Ctkp%3ABk9SR8DpsIqcZQ</t>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/266674214018?_skw=PSA+10&amp;epid=15059316397&amp;hash=item3e17059482:g:LpkAAOSwq3tlzJ3n&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlee2GF%2Bdzi2TwDxbr177LAsZTlkXMX7BHWHDHvpwc52Abwzipu3%2FCymZzcoAKpZyepQqRGg6InePcZIYs52RTboYvG489Qc8In%2B9VuxPtzztbuUjxSVxT%2F2BxJOkU5%2FLpJnCduFNy1ACTigck1FFuoYzDfJjqVVY7%2F5%2FzrxgqjrrPTdbD08vwHRuUZRfWCrUCresTZU7ohemlKtwHQ6S0h5np5uqi8wvFZpL%2FduJ5jHao4YntgA%2BX7epk33udZtgA4PwkcdqY6IG0AqNf5Dcg0%7Ctkp%3ABk9SR6bYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/396176008370?_skw=PSA+10&amp;epid=17066276759&amp;hash=item5c3dee24b2:g:PioAAOSwSh1novUl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKncQ68fsYmPsFE1hMi6wDacrwF3RXivIjck3NIzGGDmvZsu9tud9O62tvE2alfYe%2BurP6q3Iq89SdjzbGOYQrM1kiboAbACXWmmjSQWINZYJ4M1AeJOpFmALlviqPnBYcldFtjA6jOQatc%2BeBFcvf9LeA2pkeclgYLq%2FFWnt%2F%2BZVSjnY41knzA%2Fi%2Buu9CYV%2B1walZXCWAet6Lv2dfeXuSTYg3wj%2FPbKnpns6lpwPPXgVZcLpn3NlOYLFFZPdv7CReN%2BZOXiHRCkLNlx7iXX8dyT%7Ctkp%3ABk9SR6bYqrKcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ice Hockey</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>O-Pee-Chee</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Brock Faber</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>$279.56</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/116455912622?_skw=PSA+10&amp;hash=item1b1d5034ae:g:UJcAAOSw8uJnk5VD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkGALBBuBKG0Rf5HWAlVsiGw5DkzGV9pzwQ6zfMCV9seg7%2Bm9CZcEUe3MFgGvsCOVcScFRGVik5ktx%2FwvNNdaaN9uUYZm78qDHL71Wy9eiD0NGqR2XcfVS3OP1262%2BWHtNC8GBf7kZHNmyjPmkRc8KdIzcETGk9s9pGLieooCVQ2%2BvaH2MMbxiH0Yc7HsQVrNAm6iRr%2BWH5ai5vQJW3L7bNxNCDBFsQ%2Fsc%2B9kIHuFoiV3j%2BIF1Ufu3OxZyeaS1S3c9ONB6gg6MdjyKnUwUPhBQD%7Ctkp%3ABk9SR6bYqrKcZQ</t>
         </is>
       </c>
     </row>
